--- a/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.679471144202864</v>
+        <v>1.679471144203063</v>
       </c>
       <c r="C2">
-        <v>0.8062311863285458</v>
+        <v>0.8062311863288016</v>
       </c>
       <c r="D2">
-        <v>0.2027405989677504</v>
+        <v>0.2027405989678783</v>
       </c>
       <c r="E2">
-        <v>0.2190882799690073</v>
+        <v>0.2190882799689291</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>2.697702376155917</v>
       </c>
       <c r="H2">
-        <v>1.944909844771317</v>
+        <v>1.944909844771331</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.442680399037641</v>
+        <v>1.44268039903784</v>
       </c>
       <c r="C3">
-        <v>0.6914842733494595</v>
+        <v>0.6914842733498858</v>
       </c>
       <c r="D3">
-        <v>0.1745651162709265</v>
+        <v>0.1745651162711539</v>
       </c>
       <c r="E3">
-        <v>0.1896184592465531</v>
+        <v>0.1896184592465175</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4936282742881772</v>
+        <v>0.4936282742881914</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7661648350396177</v>
+        <v>0.7661648350395964</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.299967972376407</v>
+        <v>1.299967972376294</v>
       </c>
       <c r="C4">
-        <v>0.6225331735560928</v>
+        <v>0.6225331735561497</v>
       </c>
       <c r="D4">
-        <v>0.1576261539548511</v>
+        <v>0.1576261539547374</v>
       </c>
       <c r="E4">
-        <v>0.1720063116365651</v>
+        <v>0.1720063116365722</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.22408857634764</v>
+        <v>2.224088576347597</v>
       </c>
       <c r="H4">
-        <v>1.633176877025477</v>
+        <v>1.633176877025448</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.690670173828309</v>
+        <v>0.6906701738283019</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.242380772950355</v>
+        <v>1.24238077295044</v>
       </c>
       <c r="C5">
-        <v>0.5947548637392401</v>
+        <v>0.5947548637396665</v>
       </c>
       <c r="D5">
-        <v>0.1508010645325015</v>
+        <v>0.1508010645327431</v>
       </c>
       <c r="E5">
-        <v>0.1649335954218714</v>
+        <v>0.16493359542185</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.153061053543439</v>
+        <v>2.153061053543411</v>
       </c>
       <c r="H5">
-        <v>1.586485110515738</v>
+        <v>1.58648511051571</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4249133568560808</v>
+        <v>0.4249133568560666</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.232849995480393</v>
+        <v>1.23284999548062</v>
       </c>
       <c r="C6">
-        <v>0.5901600178261504</v>
+        <v>0.5901600178263777</v>
       </c>
       <c r="D6">
-        <v>0.1496720964366034</v>
+        <v>0.1496720964366176</v>
       </c>
       <c r="E6">
-        <v>0.1637650172516558</v>
+        <v>0.1637650172516629</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.141329882223786</v>
+        <v>2.141329882223772</v>
       </c>
       <c r="H6">
         <v>1.578775033719822</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4216455710743432</v>
+        <v>0.4216455710743077</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6552431355429249</v>
+        <v>0.6552431355429462</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.299189156441969</v>
+        <v>1.299189156441884</v>
       </c>
       <c r="C7">
         <v>0.6221573234690823</v>
       </c>
       <c r="D7">
-        <v>0.1575338102786503</v>
+        <v>0.1575338102786219</v>
       </c>
       <c r="E7">
-        <v>0.171910525046421</v>
+        <v>0.1719105250463713</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.223126363638329</v>
+        <v>2.223126363638343</v>
       </c>
       <c r="H7">
-        <v>1.632544225939043</v>
+        <v>1.632544225939057</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4443945697280753</v>
+        <v>0.4443945697280824</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6902587952143406</v>
+        <v>0.6902587952143335</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.597203747888642</v>
+        <v>1.597203747888727</v>
       </c>
       <c r="C8">
-        <v>0.7663172223125798</v>
+        <v>0.7663172223120966</v>
       </c>
       <c r="D8">
-        <v>0.1929425017344357</v>
+        <v>0.1929425017345778</v>
       </c>
       <c r="E8">
-        <v>0.2088161979895915</v>
+        <v>0.2088161979895347</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.594286613911223</v>
+        <v>2.594286613911208</v>
       </c>
       <c r="H8">
         <v>1.876789858620725</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5466888982812108</v>
+        <v>0.5466888982811895</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8481483116128885</v>
+        <v>0.8481483116128743</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.208199033172491</v>
+        <v>2.208199033172434</v>
       </c>
       <c r="C9">
-        <v>1.063945508406391</v>
+        <v>1.063945508406732</v>
       </c>
       <c r="D9">
-        <v>0.2659098826696749</v>
+        <v>0.2659098826691633</v>
       </c>
       <c r="E9">
-        <v>0.2858853168398525</v>
+        <v>0.2858853168398596</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.370563472173643</v>
+        <v>3.370563472173586</v>
       </c>
       <c r="H9">
-        <v>2.388672237233806</v>
+        <v>2.388672237233777</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7569033088032597</v>
+        <v>0.7569033088032242</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.174514358291269</v>
+        <v>1.17451435829129</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.681922483851679</v>
+        <v>2.681922483851849</v>
       </c>
       <c r="C10">
         <v>1.296565189853766</v>
       </c>
       <c r="D10">
-        <v>0.3227432055187478</v>
+        <v>0.3227432055191741</v>
       </c>
       <c r="E10">
-        <v>0.3467773571226047</v>
+        <v>0.3467773571226118</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.983578873653329</v>
+        <v>3.983578873653386</v>
       </c>
       <c r="H10">
-        <v>2.793609414862956</v>
+        <v>2.793609414862971</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9203262022787584</v>
+        <v>0.92032620227873</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.429729431054</v>
+        <v>1.429729431053971</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.905145515455843</v>
+        <v>2.905145515455899</v>
       </c>
       <c r="C11">
-        <v>1.406733950694161</v>
+        <v>1.406733950694274</v>
       </c>
       <c r="D11">
-        <v>0.3495855310712699</v>
+        <v>0.3495855310712273</v>
       </c>
       <c r="E11">
-        <v>0.3757870552223181</v>
+        <v>0.3757870552223324</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.275255556506011</v>
+        <v>4.275255556506039</v>
       </c>
       <c r="H11">
-        <v>2.986447175995991</v>
+        <v>2.98644717599602</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9974629562937309</v>
+        <v>0.9974629562937167</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.550598448908985</v>
+        <v>1.550598448908971</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.99101819504682</v>
+        <v>2.991018195046706</v>
       </c>
       <c r="C12">
-        <v>1.449210024031743</v>
+        <v>1.449210024032084</v>
       </c>
       <c r="D12">
-        <v>0.3599208823218873</v>
+        <v>0.3599208823219442</v>
       </c>
       <c r="E12">
-        <v>0.3869991288259484</v>
+        <v>0.38699912882592</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.387902019470232</v>
+        <v>4.387902019470204</v>
       </c>
       <c r="H12">
-        <v>3.060946331811451</v>
+        <v>3.060946331811436</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.027159207375917</v>
+        <v>1.027159207375931</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.597196830479888</v>
+        <v>1.597196830479859</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.972460119252617</v>
+        <v>2.972460119252446</v>
       </c>
       <c r="C13">
-        <v>1.440025993478969</v>
+        <v>1.440025993478571</v>
       </c>
       <c r="D13">
-        <v>0.3576868785532668</v>
+        <v>0.3576868785532383</v>
       </c>
       <c r="E13">
-        <v>0.3845736392849304</v>
+        <v>0.3845736392849162</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.363537718321993</v>
+        <v>4.363537718321965</v>
       </c>
       <c r="H13">
-        <v>3.04483181071825</v>
+        <v>3.044831810718279</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.58712168643342</v>
+        <v>1.587121686433392</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.91218192473815</v>
+        <v>2.912181924738206</v>
       </c>
       <c r="C14">
-        <v>1.410212460224329</v>
+        <v>1.410212460224557</v>
       </c>
       <c r="D14">
-        <v>0.3504322237768918</v>
+        <v>0.3504322237767212</v>
       </c>
       <c r="E14">
-        <v>0.3767046909945435</v>
+        <v>0.3767046909945293</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.284476830145877</v>
+        <v>4.28447683014582</v>
       </c>
       <c r="H14">
-        <v>2.992545206224577</v>
+        <v>2.992545206224563</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9998958046620459</v>
+        <v>0.9998958046620317</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.554414631960242</v>
+        <v>1.554414631960199</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.875442253017127</v>
+        <v>2.875442253017411</v>
       </c>
       <c r="C15">
         <v>1.392053783038023</v>
       </c>
       <c r="D15">
-        <v>0.3460117041112625</v>
+        <v>0.3460117041114614</v>
       </c>
       <c r="E15">
-        <v>0.3719155150300821</v>
+        <v>0.3719155150301106</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.236347052837829</v>
+        <v>4.236347052837914</v>
       </c>
       <c r="H15">
         <v>2.960717963595826</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9871939227513451</v>
+        <v>0.9871939227514019</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.667508738641288</v>
+        <v>2.667508738641118</v>
       </c>
       <c r="C16">
         <v>1.289463703708634</v>
       </c>
       <c r="D16">
-        <v>0.3210112276311179</v>
+        <v>0.3210112276308621</v>
       </c>
       <c r="E16">
-        <v>0.3449109923398908</v>
+        <v>0.3449109923399192</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.964803757467706</v>
+        <v>3.964803757467763</v>
       </c>
       <c r="H16">
-        <v>2.781199866518762</v>
+        <v>2.781199866518776</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9153482630701575</v>
+        <v>0.9153482630701717</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.54207996646204</v>
+        <v>2.542079966461756</v>
       </c>
       <c r="C17">
-        <v>1.227729039067071</v>
+        <v>1.227729039067356</v>
       </c>
       <c r="D17">
-        <v>0.3059463589367653</v>
+        <v>0.3059463589369784</v>
       </c>
       <c r="E17">
         <v>0.3287053315553123</v>
@@ -997,22 +997,22 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.801735454648622</v>
+        <v>3.80173545464865</v>
       </c>
       <c r="H17">
-        <v>2.673436928919557</v>
+        <v>2.673436928919571</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8720447874135431</v>
+        <v>0.8720447874135573</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.354204470871352</v>
+        <v>1.354204470871338</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.470647685169808</v>
+        <v>2.470647685169865</v>
       </c>
       <c r="C18">
-        <v>1.192621116607938</v>
+        <v>1.192621116608166</v>
       </c>
       <c r="D18">
-        <v>0.2973725321753307</v>
+        <v>0.297372532175487</v>
       </c>
       <c r="E18">
-        <v>0.3195048799250202</v>
+        <v>0.3195048799250628</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.70912470541478</v>
+        <v>3.709124705414808</v>
       </c>
       <c r="H18">
-        <v>2.612250715990115</v>
+        <v>2.612250715990101</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.446577600540536</v>
+        <v>2.44657760054065</v>
       </c>
       <c r="C19">
-        <v>1.180799246711103</v>
+        <v>1.180799246710933</v>
       </c>
       <c r="D19">
-        <v>0.2944844289789899</v>
+        <v>0.2944844289787056</v>
       </c>
       <c r="E19">
-        <v>0.3164094152907637</v>
+        <v>0.3164094152906856</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.677961460739851</v>
+        <v>3.677961460739766</v>
       </c>
       <c r="H19">
-        <v>2.591664317457443</v>
+        <v>2.591664317457415</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.839090890255541</v>
+        <v>0.8390908902555054</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.302714740852878</v>
+        <v>1.302714740852863</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.555356924291686</v>
+        <v>2.555356924291573</v>
       </c>
       <c r="C20">
-        <v>1.234258491643686</v>
+        <v>1.234258491643629</v>
       </c>
       <c r="D20">
-        <v>0.3075404203684968</v>
+        <v>0.3075404203684542</v>
       </c>
       <c r="E20">
-        <v>0.3304177111332791</v>
+        <v>0.3304177111333075</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>3.818969670123749</v>
       </c>
       <c r="H20">
-        <v>2.684824497087675</v>
+        <v>2.684824497087703</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.87662732481418</v>
+        <v>0.8766273248141658</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.36136840301981</v>
+        <v>1.361368403019824</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.929848594410942</v>
+        <v>2.929848594410828</v>
       </c>
       <c r="C21">
-        <v>1.418947688731294</v>
+        <v>1.418947688731578</v>
       </c>
       <c r="D21">
-        <v>0.3525582060509436</v>
+        <v>0.3525582060507872</v>
       </c>
       <c r="E21">
-        <v>0.3790094985337191</v>
+        <v>0.3790094985336765</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>4.307636257635323</v>
       </c>
       <c r="H21">
-        <v>3.007860932815447</v>
+        <v>3.00786093281539</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.006004444795039</v>
+        <v>1.006004444795053</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.563997763151164</v>
+        <v>1.56399776315115</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.182566671241943</v>
+        <v>3.18256667124183</v>
       </c>
       <c r="C22">
-        <v>1.544147508502078</v>
+        <v>1.544147508501453</v>
       </c>
       <c r="D22">
-        <v>0.3829920988079181</v>
+        <v>0.3829920988072786</v>
       </c>
       <c r="E22">
-        <v>0.4121116327901504</v>
+        <v>0.4121116327902357</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>4.640010418339045</v>
       </c>
       <c r="H22">
-        <v>3.227724441194454</v>
+        <v>3.227724441194482</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.093444344800844</v>
+        <v>1.093444344800801</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.046869766358441</v>
+        <v>3.046869766358327</v>
       </c>
       <c r="C23">
-        <v>1.47686472842372</v>
+        <v>1.476864728423777</v>
       </c>
       <c r="D23">
-        <v>0.3666455920441365</v>
+        <v>0.3666455920442928</v>
       </c>
       <c r="E23">
-        <v>0.3943068265321443</v>
+        <v>0.3943068265321941</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>4.461293705912283</v>
       </c>
       <c r="H23">
-        <v>3.109491085579378</v>
+        <v>3.109491085579336</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.046480251087388</v>
+        <v>1.046480251087402</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.627534103147639</v>
+        <v>1.627534103147667</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>2.549352315621604</v>
       </c>
       <c r="C24">
-        <v>1.231305339226594</v>
+        <v>1.231305339226822</v>
       </c>
       <c r="D24">
-        <v>0.3068194757816087</v>
+        <v>0.3068194757814524</v>
       </c>
       <c r="E24">
-        <v>0.3296431845753531</v>
+        <v>0.3296431845752679</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.811174558180198</v>
+        <v>3.81117455818017</v>
       </c>
       <c r="H24">
-        <v>2.679673802156046</v>
+        <v>2.679673802156003</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8745547996182239</v>
+        <v>0.8745547996182097</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.358128286456804</v>
+        <v>1.35812828645679</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>2.03924580146375</v>
       </c>
       <c r="C25">
-        <v>0.9813721503777231</v>
+        <v>0.9813721503776662</v>
       </c>
       <c r="D25">
-        <v>0.2456904817632193</v>
+        <v>0.2456904817634893</v>
       </c>
       <c r="E25">
-        <v>0.2644003157219359</v>
+        <v>0.2644003157219572</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.154125656437913</v>
+        <v>3.154125656437898</v>
       </c>
       <c r="H25">
         <v>2.245835405536582</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.083936550942354</v>
+        <v>1.083936550942326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.679471144203063</v>
+        <v>1.679471144202864</v>
       </c>
       <c r="C2">
-        <v>0.8062311863288016</v>
+        <v>0.8062311863285458</v>
       </c>
       <c r="D2">
-        <v>0.2027405989678783</v>
+        <v>0.2027405989677504</v>
       </c>
       <c r="E2">
-        <v>0.2190882799689291</v>
+        <v>0.2190882799690073</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>2.697702376155917</v>
       </c>
       <c r="H2">
-        <v>1.944909844771331</v>
+        <v>1.944909844771317</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.44268039903784</v>
+        <v>1.442680399037641</v>
       </c>
       <c r="C3">
-        <v>0.6914842733498858</v>
+        <v>0.6914842733494595</v>
       </c>
       <c r="D3">
-        <v>0.1745651162711539</v>
+        <v>0.1745651162709265</v>
       </c>
       <c r="E3">
-        <v>0.1896184592465175</v>
+        <v>0.1896184592465531</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4936282742881914</v>
+        <v>0.4936282742881772</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7661648350395964</v>
+        <v>0.7661648350396177</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.299967972376294</v>
+        <v>1.299967972376407</v>
       </c>
       <c r="C4">
-        <v>0.6225331735561497</v>
+        <v>0.6225331735560928</v>
       </c>
       <c r="D4">
-        <v>0.1576261539547374</v>
+        <v>0.1576261539548511</v>
       </c>
       <c r="E4">
-        <v>0.1720063116365722</v>
+        <v>0.1720063116365651</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.224088576347597</v>
+        <v>2.22408857634764</v>
       </c>
       <c r="H4">
-        <v>1.633176877025448</v>
+        <v>1.633176877025477</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6906701738283019</v>
+        <v>0.690670173828309</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.24238077295044</v>
+        <v>1.242380772950355</v>
       </c>
       <c r="C5">
-        <v>0.5947548637396665</v>
+        <v>0.5947548637392401</v>
       </c>
       <c r="D5">
-        <v>0.1508010645327431</v>
+        <v>0.1508010645325015</v>
       </c>
       <c r="E5">
-        <v>0.16493359542185</v>
+        <v>0.1649335954218714</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.153061053543411</v>
+        <v>2.153061053543439</v>
       </c>
       <c r="H5">
-        <v>1.58648511051571</v>
+        <v>1.586485110515738</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4249133568560666</v>
+        <v>0.4249133568560808</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.23284999548062</v>
+        <v>1.232849995480393</v>
       </c>
       <c r="C6">
-        <v>0.5901600178263777</v>
+        <v>0.5901600178261504</v>
       </c>
       <c r="D6">
-        <v>0.1496720964366176</v>
+        <v>0.1496720964366034</v>
       </c>
       <c r="E6">
-        <v>0.1637650172516629</v>
+        <v>0.1637650172516558</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.141329882223772</v>
+        <v>2.141329882223786</v>
       </c>
       <c r="H6">
         <v>1.578775033719822</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4216455710743077</v>
+        <v>0.4216455710743432</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6552431355429462</v>
+        <v>0.6552431355429249</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.299189156441884</v>
+        <v>1.299189156441969</v>
       </c>
       <c r="C7">
         <v>0.6221573234690823</v>
       </c>
       <c r="D7">
-        <v>0.1575338102786219</v>
+        <v>0.1575338102786503</v>
       </c>
       <c r="E7">
-        <v>0.1719105250463713</v>
+        <v>0.171910525046421</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.223126363638343</v>
+        <v>2.223126363638329</v>
       </c>
       <c r="H7">
-        <v>1.632544225939057</v>
+        <v>1.632544225939043</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4443945697280824</v>
+        <v>0.4443945697280753</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6902587952143335</v>
+        <v>0.6902587952143406</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.597203747888727</v>
+        <v>1.597203747888642</v>
       </c>
       <c r="C8">
-        <v>0.7663172223120966</v>
+        <v>0.7663172223125798</v>
       </c>
       <c r="D8">
-        <v>0.1929425017345778</v>
+        <v>0.1929425017344357</v>
       </c>
       <c r="E8">
-        <v>0.2088161979895347</v>
+        <v>0.2088161979895915</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.594286613911208</v>
+        <v>2.594286613911223</v>
       </c>
       <c r="H8">
         <v>1.876789858620725</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5466888982811895</v>
+        <v>0.5466888982812108</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8481483116128743</v>
+        <v>0.8481483116128885</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.208199033172434</v>
+        <v>2.208199033172491</v>
       </c>
       <c r="C9">
-        <v>1.063945508406732</v>
+        <v>1.063945508406391</v>
       </c>
       <c r="D9">
-        <v>0.2659098826691633</v>
+        <v>0.2659098826696749</v>
       </c>
       <c r="E9">
-        <v>0.2858853168398596</v>
+        <v>0.2858853168398525</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.370563472173586</v>
+        <v>3.370563472173643</v>
       </c>
       <c r="H9">
-        <v>2.388672237233777</v>
+        <v>2.388672237233806</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7569033088032242</v>
+        <v>0.7569033088032597</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.17451435829129</v>
+        <v>1.174514358291269</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.681922483851849</v>
+        <v>2.681922483851679</v>
       </c>
       <c r="C10">
         <v>1.296565189853766</v>
       </c>
       <c r="D10">
-        <v>0.3227432055191741</v>
+        <v>0.3227432055187478</v>
       </c>
       <c r="E10">
-        <v>0.3467773571226118</v>
+        <v>0.3467773571226047</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.983578873653386</v>
+        <v>3.983578873653329</v>
       </c>
       <c r="H10">
-        <v>2.793609414862971</v>
+        <v>2.793609414862956</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.92032620227873</v>
+        <v>0.9203262022787584</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.429729431053971</v>
+        <v>1.429729431054</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.905145515455899</v>
+        <v>2.905145515455843</v>
       </c>
       <c r="C11">
-        <v>1.406733950694274</v>
+        <v>1.406733950694161</v>
       </c>
       <c r="D11">
-        <v>0.3495855310712273</v>
+        <v>0.3495855310712699</v>
       </c>
       <c r="E11">
-        <v>0.3757870552223324</v>
+        <v>0.3757870552223181</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.275255556506039</v>
+        <v>4.275255556506011</v>
       </c>
       <c r="H11">
-        <v>2.98644717599602</v>
+        <v>2.986447175995991</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9974629562937167</v>
+        <v>0.9974629562937309</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.550598448908971</v>
+        <v>1.550598448908985</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.991018195046706</v>
+        <v>2.99101819504682</v>
       </c>
       <c r="C12">
-        <v>1.449210024032084</v>
+        <v>1.449210024031743</v>
       </c>
       <c r="D12">
-        <v>0.3599208823219442</v>
+        <v>0.3599208823218873</v>
       </c>
       <c r="E12">
-        <v>0.38699912882592</v>
+        <v>0.3869991288259484</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.387902019470204</v>
+        <v>4.387902019470232</v>
       </c>
       <c r="H12">
-        <v>3.060946331811436</v>
+        <v>3.060946331811451</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.027159207375931</v>
+        <v>1.027159207375917</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.597196830479859</v>
+        <v>1.597196830479888</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.972460119252446</v>
+        <v>2.972460119252617</v>
       </c>
       <c r="C13">
-        <v>1.440025993478571</v>
+        <v>1.440025993478969</v>
       </c>
       <c r="D13">
-        <v>0.3576868785532383</v>
+        <v>0.3576868785532668</v>
       </c>
       <c r="E13">
-        <v>0.3845736392849162</v>
+        <v>0.3845736392849304</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.363537718321965</v>
+        <v>4.363537718321993</v>
       </c>
       <c r="H13">
-        <v>3.044831810718279</v>
+        <v>3.04483181071825</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.587121686433392</v>
+        <v>1.58712168643342</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.912181924738206</v>
+        <v>2.91218192473815</v>
       </c>
       <c r="C14">
-        <v>1.410212460224557</v>
+        <v>1.410212460224329</v>
       </c>
       <c r="D14">
-        <v>0.3504322237767212</v>
+        <v>0.3504322237768918</v>
       </c>
       <c r="E14">
-        <v>0.3767046909945293</v>
+        <v>0.3767046909945435</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.28447683014582</v>
+        <v>4.284476830145877</v>
       </c>
       <c r="H14">
-        <v>2.992545206224563</v>
+        <v>2.992545206224577</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9998958046620317</v>
+        <v>0.9998958046620459</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.554414631960199</v>
+        <v>1.554414631960242</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.875442253017411</v>
+        <v>2.875442253017127</v>
       </c>
       <c r="C15">
         <v>1.392053783038023</v>
       </c>
       <c r="D15">
-        <v>0.3460117041114614</v>
+        <v>0.3460117041112625</v>
       </c>
       <c r="E15">
-        <v>0.3719155150301106</v>
+        <v>0.3719155150300821</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.236347052837914</v>
+        <v>4.236347052837829</v>
       </c>
       <c r="H15">
         <v>2.960717963595826</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9871939227514019</v>
+        <v>0.9871939227513451</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.667508738641118</v>
+        <v>2.667508738641288</v>
       </c>
       <c r="C16">
         <v>1.289463703708634</v>
       </c>
       <c r="D16">
-        <v>0.3210112276308621</v>
+        <v>0.3210112276311179</v>
       </c>
       <c r="E16">
-        <v>0.3449109923399192</v>
+        <v>0.3449109923398908</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.964803757467763</v>
+        <v>3.964803757467706</v>
       </c>
       <c r="H16">
-        <v>2.781199866518776</v>
+        <v>2.781199866518762</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9153482630701717</v>
+        <v>0.9153482630701575</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.542079966461756</v>
+        <v>2.54207996646204</v>
       </c>
       <c r="C17">
-        <v>1.227729039067356</v>
+        <v>1.227729039067071</v>
       </c>
       <c r="D17">
-        <v>0.3059463589369784</v>
+        <v>0.3059463589367653</v>
       </c>
       <c r="E17">
         <v>0.3287053315553123</v>
@@ -997,22 +997,22 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.80173545464865</v>
+        <v>3.801735454648622</v>
       </c>
       <c r="H17">
-        <v>2.673436928919571</v>
+        <v>2.673436928919557</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8720447874135573</v>
+        <v>0.8720447874135431</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.354204470871338</v>
+        <v>1.354204470871352</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.470647685169865</v>
+        <v>2.470647685169808</v>
       </c>
       <c r="C18">
-        <v>1.192621116608166</v>
+        <v>1.192621116607938</v>
       </c>
       <c r="D18">
-        <v>0.297372532175487</v>
+        <v>0.2973725321753307</v>
       </c>
       <c r="E18">
-        <v>0.3195048799250628</v>
+        <v>0.3195048799250202</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.709124705414808</v>
+        <v>3.70912470541478</v>
       </c>
       <c r="H18">
-        <v>2.612250715990101</v>
+        <v>2.612250715990115</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.44657760054065</v>
+        <v>2.446577600540536</v>
       </c>
       <c r="C19">
-        <v>1.180799246710933</v>
+        <v>1.180799246711103</v>
       </c>
       <c r="D19">
-        <v>0.2944844289787056</v>
+        <v>0.2944844289789899</v>
       </c>
       <c r="E19">
-        <v>0.3164094152906856</v>
+        <v>0.3164094152907637</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.677961460739766</v>
+        <v>3.677961460739851</v>
       </c>
       <c r="H19">
-        <v>2.591664317457415</v>
+        <v>2.591664317457443</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8390908902555054</v>
+        <v>0.839090890255541</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.302714740852863</v>
+        <v>1.302714740852878</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.555356924291573</v>
+        <v>2.555356924291686</v>
       </c>
       <c r="C20">
-        <v>1.234258491643629</v>
+        <v>1.234258491643686</v>
       </c>
       <c r="D20">
-        <v>0.3075404203684542</v>
+        <v>0.3075404203684968</v>
       </c>
       <c r="E20">
-        <v>0.3304177111333075</v>
+        <v>0.3304177111332791</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>3.818969670123749</v>
       </c>
       <c r="H20">
-        <v>2.684824497087703</v>
+        <v>2.684824497087675</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8766273248141658</v>
+        <v>0.87662732481418</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.361368403019824</v>
+        <v>1.36136840301981</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.929848594410828</v>
+        <v>2.929848594410942</v>
       </c>
       <c r="C21">
-        <v>1.418947688731578</v>
+        <v>1.418947688731294</v>
       </c>
       <c r="D21">
-        <v>0.3525582060507872</v>
+        <v>0.3525582060509436</v>
       </c>
       <c r="E21">
-        <v>0.3790094985336765</v>
+        <v>0.3790094985337191</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>4.307636257635323</v>
       </c>
       <c r="H21">
-        <v>3.00786093281539</v>
+        <v>3.007860932815447</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.006004444795053</v>
+        <v>1.006004444795039</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.56399776315115</v>
+        <v>1.563997763151164</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.18256667124183</v>
+        <v>3.182566671241943</v>
       </c>
       <c r="C22">
-        <v>1.544147508501453</v>
+        <v>1.544147508502078</v>
       </c>
       <c r="D22">
-        <v>0.3829920988072786</v>
+        <v>0.3829920988079181</v>
       </c>
       <c r="E22">
-        <v>0.4121116327902357</v>
+        <v>0.4121116327901504</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>4.640010418339045</v>
       </c>
       <c r="H22">
-        <v>3.227724441194482</v>
+        <v>3.227724441194454</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.093444344800801</v>
+        <v>1.093444344800844</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.046869766358327</v>
+        <v>3.046869766358441</v>
       </c>
       <c r="C23">
-        <v>1.476864728423777</v>
+        <v>1.47686472842372</v>
       </c>
       <c r="D23">
-        <v>0.3666455920442928</v>
+        <v>0.3666455920441365</v>
       </c>
       <c r="E23">
-        <v>0.3943068265321941</v>
+        <v>0.3943068265321443</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>4.461293705912283</v>
       </c>
       <c r="H23">
-        <v>3.109491085579336</v>
+        <v>3.109491085579378</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.046480251087402</v>
+        <v>1.046480251087388</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.627534103147667</v>
+        <v>1.627534103147639</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>2.549352315621604</v>
       </c>
       <c r="C24">
-        <v>1.231305339226822</v>
+        <v>1.231305339226594</v>
       </c>
       <c r="D24">
-        <v>0.3068194757814524</v>
+        <v>0.3068194757816087</v>
       </c>
       <c r="E24">
-        <v>0.3296431845752679</v>
+        <v>0.3296431845753531</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.81117455818017</v>
+        <v>3.811174558180198</v>
       </c>
       <c r="H24">
-        <v>2.679673802156003</v>
+        <v>2.679673802156046</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8745547996182097</v>
+        <v>0.8745547996182239</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.35812828645679</v>
+        <v>1.358128286456804</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>2.03924580146375</v>
       </c>
       <c r="C25">
-        <v>0.9813721503776662</v>
+        <v>0.9813721503777231</v>
       </c>
       <c r="D25">
-        <v>0.2456904817634893</v>
+        <v>0.2456904817632193</v>
       </c>
       <c r="E25">
-        <v>0.2644003157219572</v>
+        <v>0.2644003157219359</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.154125656437898</v>
+        <v>3.154125656437913</v>
       </c>
       <c r="H25">
         <v>2.245835405536582</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.083936550942326</v>
+        <v>1.083936550942354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.679471144202864</v>
+        <v>1.679475605404861</v>
       </c>
       <c r="C2">
-        <v>0.8062311863285458</v>
+        <v>0.8053190834921793</v>
       </c>
       <c r="D2">
-        <v>0.2027405989677504</v>
+        <v>0.2027328929560923</v>
       </c>
       <c r="E2">
-        <v>0.2190882799690073</v>
+        <v>0.2191213521447892</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.697702376155917</v>
+        <v>0.8696154675975976</v>
       </c>
       <c r="H2">
-        <v>1.944909844771317</v>
+        <v>1.823472638139734</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.939436673052413</v>
       </c>
       <c r="J2">
-        <v>0.5749554226592295</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5747440979945608</v>
       </c>
       <c r="L2">
-        <v>0.891892733249513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.891737074090976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.442680399037641</v>
+        <v>1.442727074945196</v>
       </c>
       <c r="C3">
-        <v>0.6914842733494595</v>
+        <v>0.6907090085582013</v>
       </c>
       <c r="D3">
-        <v>0.1745651162709265</v>
+        <v>0.1745606827331443</v>
       </c>
       <c r="E3">
-        <v>0.1896184592465531</v>
+        <v>0.1896490876603991</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.401120340930433</v>
+        <v>0.7680554860657764</v>
       </c>
       <c r="H3">
-        <v>1.749625005884454</v>
+        <v>1.629598191457873</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.744808644561175</v>
       </c>
       <c r="J3">
-        <v>0.4936282742881772</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.493458525528446</v>
       </c>
       <c r="L3">
-        <v>0.7661648350396177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.7660421720999793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.299967972376407</v>
+        <v>1.300034155484383</v>
       </c>
       <c r="C4">
-        <v>0.6225331735560928</v>
+        <v>0.6218380670125043</v>
       </c>
       <c r="D4">
-        <v>0.1576261539548511</v>
+        <v>0.1576233423267155</v>
       </c>
       <c r="E4">
-        <v>0.1720063116365651</v>
+        <v>0.1720354181609238</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.22408857634764</v>
+        <v>0.7073576951487439</v>
       </c>
       <c r="H4">
-        <v>1.633176877025477</v>
+        <v>1.513954719699683</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.628756560280507</v>
       </c>
       <c r="J4">
-        <v>0.4446616895307187</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4445151018194693</v>
       </c>
       <c r="L4">
-        <v>0.690670173828309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.690565261755971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.242380772950355</v>
+        <v>1.242453515941406</v>
       </c>
       <c r="C5">
-        <v>0.5947548637392401</v>
+        <v>0.5940916027663832</v>
       </c>
       <c r="D5">
-        <v>0.1508010645325015</v>
+        <v>0.1507988334702333</v>
       </c>
       <c r="E5">
-        <v>0.1649335954218714</v>
+        <v>0.1649620839953556</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.153061053543439</v>
+        <v>0.682986086046995</v>
       </c>
       <c r="H5">
-        <v>1.586485110515738</v>
+        <v>1.467577266032308</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.582224712662324</v>
       </c>
       <c r="J5">
-        <v>0.4249133568560808</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4247756985913824</v>
       </c>
       <c r="L5">
-        <v>0.6602706274994645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.6601724165651675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.232849995480393</v>
+        <v>1.232923749789592</v>
       </c>
       <c r="C6">
-        <v>0.5901600178261504</v>
+        <v>0.5895019993494657</v>
       </c>
       <c r="D6">
-        <v>0.1496720964366034</v>
+        <v>0.1496699573727369</v>
       </c>
       <c r="E6">
-        <v>0.1637650172516558</v>
+        <v>0.1637934035382216</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.141329882223786</v>
+        <v>0.6789596475473303</v>
       </c>
       <c r="H6">
-        <v>1.578775033719822</v>
+        <v>1.459918611681559</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.574541110764841</v>
       </c>
       <c r="J6">
-        <v>0.4216455710743432</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.421509367115533</v>
       </c>
       <c r="L6">
-        <v>0.6552431355429249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.6551460077803384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.299189156441969</v>
+        <v>1.299255433370831</v>
       </c>
       <c r="C7">
-        <v>0.6221573234690823</v>
+        <v>0.621462649538131</v>
       </c>
       <c r="D7">
-        <v>0.1575338102786503</v>
+        <v>0.1575310067853479</v>
       </c>
       <c r="E7">
-        <v>0.171910525046421</v>
+        <v>0.1719396232190675</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.223126363638329</v>
+        <v>0.7070276083923375</v>
       </c>
       <c r="H7">
-        <v>1.632544225939043</v>
+        <v>1.513326360219651</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.628126071447198</v>
       </c>
       <c r="J7">
-        <v>0.4443945697280753</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4442481043969551</v>
       </c>
       <c r="L7">
-        <v>0.6902587952143406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6901539755520005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.597203747888642</v>
+        <v>1.597224239673892</v>
       </c>
       <c r="C8">
-        <v>0.7663172223125798</v>
+        <v>0.7654531999882579</v>
       </c>
       <c r="D8">
-        <v>0.1929425017344357</v>
+        <v>0.1929360155830437</v>
       </c>
       <c r="E8">
-        <v>0.2088161979895915</v>
+        <v>0.2088484372028745</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.594286613911223</v>
+        <v>0.8342185607278623</v>
       </c>
       <c r="H8">
-        <v>1.876789858620725</v>
+        <v>1.755852813023182</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.871544880476293</v>
       </c>
       <c r="J8">
-        <v>0.5466888982812108</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5464924558342332</v>
       </c>
       <c r="L8">
-        <v>0.8481483116128885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.8480046142038731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.208199033172491</v>
+        <v>2.20806693331599</v>
       </c>
       <c r="C9">
-        <v>1.063945508406391</v>
+        <v>1.06271071186967</v>
       </c>
       <c r="D9">
-        <v>0.2659098826696749</v>
+        <v>0.2658921671044112</v>
       </c>
       <c r="E9">
-        <v>0.2858853168398525</v>
+        <v>0.2859230765918213</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.370563472173643</v>
+        <v>1.09958378957171</v>
       </c>
       <c r="H9">
-        <v>2.388672237233806</v>
+        <v>2.263790053605732</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.381730177647157</v>
       </c>
       <c r="J9">
-        <v>0.7569033088032597</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7565854790707078</v>
       </c>
       <c r="L9">
-        <v>1.174514358291269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.174269165030431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.681922483851679</v>
+        <v>2.681619656068222</v>
       </c>
       <c r="C10">
-        <v>1.296565189853766</v>
+        <v>1.295020769553958</v>
       </c>
       <c r="D10">
-        <v>0.3227432055187478</v>
+        <v>0.3227131589556365</v>
       </c>
       <c r="E10">
-        <v>0.3467773571226047</v>
+        <v>0.3468178552174521</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.983578873653329</v>
+        <v>1.308711990009357</v>
       </c>
       <c r="H10">
-        <v>2.793609414862956</v>
+        <v>2.66534928922502</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.785344056293056</v>
       </c>
       <c r="J10">
-        <v>0.9203262022787584</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9198971044966413</v>
       </c>
       <c r="L10">
-        <v>1.429729431054</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.429384970969423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.905145515455843</v>
+        <v>2.904746340600695</v>
       </c>
       <c r="C11">
-        <v>1.406733950694161</v>
+        <v>1.405036641780498</v>
       </c>
       <c r="D11">
-        <v>0.3495855310712699</v>
+        <v>0.3495484929181174</v>
       </c>
       <c r="E11">
-        <v>0.3757870552223181</v>
+        <v>0.3758281924074254</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.275255556506011</v>
+        <v>1.408118012111998</v>
       </c>
       <c r="H11">
-        <v>2.986447175995991</v>
+        <v>2.856514701334021</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.977554663211549</v>
       </c>
       <c r="J11">
-        <v>0.9974629562937309</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9969761608048202</v>
       </c>
       <c r="L11">
-        <v>1.550598448908985</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.55020067749264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.99101819504682</v>
+        <v>2.990579205088977</v>
       </c>
       <c r="C12">
-        <v>1.449210024031743</v>
+        <v>1.44745266466208</v>
       </c>
       <c r="D12">
-        <v>0.3599208823218873</v>
+        <v>0.3598809427636667</v>
       </c>
       <c r="E12">
-        <v>0.3869991288259484</v>
+        <v>0.3870403816659973</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.387902019470232</v>
+        <v>1.446494260564066</v>
       </c>
       <c r="H12">
-        <v>3.060946331811451</v>
+        <v>2.930358151599108</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.051811815366193</v>
       </c>
       <c r="J12">
-        <v>1.027159207375917</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.02664929844866</v>
       </c>
       <c r="L12">
-        <v>1.597196830479888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.59677739076001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.972460119252617</v>
+        <v>2.972029864218371</v>
       </c>
       <c r="C13">
-        <v>1.440025993478969</v>
+        <v>1.438281670686365</v>
       </c>
       <c r="D13">
-        <v>0.3576868785532668</v>
+        <v>0.3576475761852578</v>
       </c>
       <c r="E13">
-        <v>0.3845736392849304</v>
+        <v>0.3846148736017483</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.363537718321993</v>
+        <v>1.438194521868525</v>
       </c>
       <c r="H13">
-        <v>3.04483181071825</v>
+        <v>2.91438589519484</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.0357496311088</v>
       </c>
       <c r="J13">
-        <v>1.020740462317789</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.020235592069753</v>
       </c>
       <c r="L13">
-        <v>1.58712168643342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.586706984961836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.91218192473815</v>
+        <v>2.911779545251875</v>
       </c>
       <c r="C14">
-        <v>1.410212460224329</v>
+        <v>1.408510256884085</v>
       </c>
       <c r="D14">
-        <v>0.3504322237768918</v>
+        <v>0.3503949523767744</v>
       </c>
       <c r="E14">
-        <v>0.3767046909945435</v>
+        <v>0.3767458404980033</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.284476830145877</v>
+        <v>1.411259798720693</v>
       </c>
       <c r="H14">
-        <v>2.992545206224577</v>
+        <v>2.862559253377611</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.983632879907802</v>
       </c>
       <c r="J14">
-        <v>0.9998958046620459</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9994071345766287</v>
       </c>
       <c r="L14">
-        <v>1.554414631960242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.5540151095921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.875442253017127</v>
+        <v>2.87505649268644</v>
       </c>
       <c r="C15">
-        <v>1.392053783038023</v>
+        <v>1.390377084233819</v>
       </c>
       <c r="D15">
-        <v>0.3460117041112625</v>
+        <v>0.3459756418054099</v>
       </c>
       <c r="E15">
-        <v>0.3719155150300821</v>
+        <v>0.3719565947450363</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.236347052837829</v>
+        <v>1.3948608774609</v>
       </c>
       <c r="H15">
-        <v>2.960717963595826</v>
+        <v>2.831010739682824</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.95190905977968</v>
       </c>
       <c r="J15">
-        <v>0.9871939227513451</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.9867150027667293</v>
       </c>
       <c r="L15">
-        <v>1.534493066674742</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.534102638690669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.667508738641288</v>
+        <v>2.667211779674687</v>
       </c>
       <c r="C16">
-        <v>1.289463703708634</v>
+        <v>1.287928998681423</v>
       </c>
       <c r="D16">
-        <v>0.3210112276311179</v>
+        <v>0.3209816057701715</v>
       </c>
       <c r="E16">
-        <v>0.3449109923398908</v>
+        <v>0.3449514334001762</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.964803757467706</v>
+        <v>1.302311275143182</v>
       </c>
       <c r="H16">
-        <v>2.781199866518762</v>
+        <v>2.653046059890386</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.772974915024818</v>
       </c>
       <c r="J16">
-        <v>0.9153482630701575</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9149227736716341</v>
       </c>
       <c r="L16">
-        <v>1.421937938662111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.421596773884758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.54207996646204</v>
+        <v>2.541832285379769</v>
       </c>
       <c r="C17">
-        <v>1.227729039067071</v>
+        <v>1.226278086101729</v>
       </c>
       <c r="D17">
-        <v>0.3059463589367653</v>
+        <v>0.3059202990112624</v>
       </c>
       <c r="E17">
-        <v>0.3287053315553123</v>
+        <v>0.3287452013904897</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.801735454648622</v>
+        <v>1.246708070390667</v>
       </c>
       <c r="H17">
-        <v>2.673436928919557</v>
+        <v>2.546199354206294</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.66556318389064</v>
       </c>
       <c r="J17">
-        <v>0.8720447874135431</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8716501038156963</v>
       </c>
       <c r="L17">
-        <v>1.354204470871352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.353891242576069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.470647685169808</v>
+        <v>2.470426635064314</v>
       </c>
       <c r="C18">
-        <v>1.192621116607938</v>
+        <v>1.191217232620943</v>
       </c>
       <c r="D18">
-        <v>0.2973725321753307</v>
+        <v>0.2973483948800322</v>
       </c>
       <c r="E18">
-        <v>0.3195048799250202</v>
+        <v>0.3195443670760341</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.70912470541478</v>
+        <v>1.215120566345206</v>
       </c>
       <c r="H18">
-        <v>2.612250715990115</v>
+        <v>2.485527550076142</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.604576668590937</v>
       </c>
       <c r="J18">
-        <v>0.8473950333200975</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8470174194747813</v>
       </c>
       <c r="L18">
-        <v>1.315685205786423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.315387300547812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.446577600540536</v>
+        <v>2.446365290441577</v>
       </c>
       <c r="C19">
-        <v>1.180799246711103</v>
+        <v>1.179411121457292</v>
       </c>
       <c r="D19">
-        <v>0.2944844289789899</v>
+        <v>0.2944609224587964</v>
       </c>
       <c r="E19">
-        <v>0.3164094152907637</v>
+        <v>0.3164487645698486</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.677961460739851</v>
+        <v>1.204489933951038</v>
       </c>
       <c r="H19">
-        <v>2.591664317457443</v>
+        <v>2.465113244346384</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.584057512351492</v>
       </c>
       <c r="J19">
-        <v>0.839090890255541</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8387189511098043</v>
       </c>
       <c r="L19">
-        <v>1.302714740852878</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.302421903935695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.555356924291686</v>
+        <v>2.555104178920601</v>
       </c>
       <c r="C20">
-        <v>1.234258491643686</v>
+        <v>1.232798740055898</v>
       </c>
       <c r="D20">
-        <v>0.3075404203684968</v>
+        <v>0.3075139946756167</v>
       </c>
       <c r="E20">
-        <v>0.3304177111332791</v>
+        <v>0.3304576476224952</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.818969670123749</v>
+        <v>1.252585550187689</v>
       </c>
       <c r="H20">
-        <v>2.684824497087675</v>
+        <v>2.557490710437293</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.676913610198085</v>
       </c>
       <c r="J20">
-        <v>0.87662732481418</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8762294306569345</v>
       </c>
       <c r="L20">
-        <v>1.36136840301981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.361052279964227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.929848594410942</v>
+        <v>2.929438123480281</v>
       </c>
       <c r="C21">
-        <v>1.418947688731294</v>
+        <v>1.417233176230184</v>
       </c>
       <c r="D21">
-        <v>0.3525582060509436</v>
+        <v>0.3525203455054822</v>
       </c>
       <c r="E21">
-        <v>0.3790094985337191</v>
+        <v>0.3790506767552131</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.307636257635323</v>
+        <v>1.419150228961655</v>
       </c>
       <c r="H21">
-        <v>3.007860932815447</v>
+        <v>2.877740510984921</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.998898847032308</v>
       </c>
       <c r="J21">
-        <v>1.006004444795039</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.005511052898456</v>
       </c>
       <c r="L21">
-        <v>1.563997763151164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.563593825333641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.182566671241943</v>
+        <v>3.182033287064883</v>
       </c>
       <c r="C22">
-        <v>1.544147508502078</v>
+        <v>1.542253662408314</v>
       </c>
       <c r="D22">
-        <v>0.3829920988079181</v>
+        <v>0.3829452486486815</v>
       </c>
       <c r="E22">
-        <v>0.4121116327901504</v>
+        <v>0.4121528574916482</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.640010418339045</v>
+        <v>1.532354961675736</v>
       </c>
       <c r="H22">
-        <v>3.227724441194454</v>
+        <v>3.09565052028799</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.218048464836428</v>
       </c>
       <c r="J22">
-        <v>1.093444344800844</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.092881009570235</v>
       </c>
       <c r="L22">
-        <v>1.701338280664373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.700868117601033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.046869766358441</v>
+        <v>3.046404052533887</v>
       </c>
       <c r="C23">
-        <v>1.47686472842372</v>
+        <v>1.47506793704656</v>
       </c>
       <c r="D23">
-        <v>0.3666455920441365</v>
+        <v>0.3666037006834983</v>
       </c>
       <c r="E23">
-        <v>0.3943068265321443</v>
+        <v>0.394348113022609</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.461293705912283</v>
+        <v>1.471493108832533</v>
       </c>
       <c r="H23">
-        <v>3.109491085579378</v>
+        <v>2.978472927245178</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.100198931641543</v>
       </c>
       <c r="J23">
-        <v>1.046480251087388</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.045955032181169</v>
       </c>
       <c r="L23">
-        <v>1.627534103147639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.627100217297354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.549352315621604</v>
+        <v>2.54910186506288</v>
       </c>
       <c r="C24">
-        <v>1.231305339226594</v>
+        <v>1.229849568833231</v>
       </c>
       <c r="D24">
-        <v>0.3068194757816087</v>
+        <v>0.3067932158379136</v>
       </c>
       <c r="E24">
-        <v>0.3296431845753531</v>
+        <v>0.3296830910964914</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.811174558180198</v>
+        <v>1.249927168163708</v>
       </c>
       <c r="H24">
-        <v>2.679673802156046</v>
+        <v>2.552383551160148</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.671779713936445</v>
       </c>
       <c r="J24">
-        <v>0.8745547996182239</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8741583589333004</v>
       </c>
       <c r="L24">
-        <v>1.358128286456804</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.357813474398824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.03924580146375</v>
+        <v>2.039163568364245</v>
       </c>
       <c r="C25">
-        <v>0.9813721503777231</v>
+        <v>0.9802430539766647</v>
       </c>
       <c r="D25">
-        <v>0.2456904817632193</v>
+        <v>0.2456763808928315</v>
       </c>
       <c r="E25">
-        <v>0.2644003157219359</v>
+        <v>0.264436728965407</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.154125656437913</v>
+        <v>1.025666553362953</v>
       </c>
       <c r="H25">
-        <v>2.245835405536582</v>
+        <v>2.12209471434906</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.239363376053149</v>
       </c>
       <c r="J25">
-        <v>0.6987102805972398</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6984285111910751</v>
       </c>
       <c r="L25">
-        <v>1.083936550942354</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.083722362155548</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.679475605404861</v>
+        <v>1.694695531620141</v>
       </c>
       <c r="C2">
-        <v>0.8053190834921793</v>
+        <v>0.3139913568272164</v>
       </c>
       <c r="D2">
-        <v>0.2027328929560923</v>
+        <v>0.3850131562714409</v>
       </c>
       <c r="E2">
-        <v>0.2191213521447892</v>
+        <v>0.1249049337407513</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8696154675975976</v>
+        <v>0.0008360052773253385</v>
       </c>
       <c r="H2">
-        <v>1.823472638139734</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.939436673052413</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04521724428962415</v>
       </c>
       <c r="K2">
-        <v>0.5747440979945608</v>
+        <v>0.4430224064866053</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.891737074090976</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5859671609992532</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.206204037640958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.442727074945196</v>
+        <v>1.469972181789615</v>
       </c>
       <c r="C3">
-        <v>0.6907090085582013</v>
+        <v>0.2681949519874252</v>
       </c>
       <c r="D3">
-        <v>0.1745606827331443</v>
+        <v>0.3530689652222776</v>
       </c>
       <c r="E3">
-        <v>0.1896490876603991</v>
+        <v>0.1156271368570785</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7680554860657764</v>
+        <v>0.0008483735815293153</v>
       </c>
       <c r="H3">
-        <v>1.629598191457873</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.744808644561175</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04255683811459221</v>
       </c>
       <c r="K3">
-        <v>0.493458525528446</v>
+        <v>0.3829927755153477</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7660421720999793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5172925077787838</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>8.174923274705833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.300034155484383</v>
+        <v>1.337709942975948</v>
       </c>
       <c r="C4">
-        <v>0.6218380670125043</v>
+        <v>0.2415643658981423</v>
       </c>
       <c r="D4">
-        <v>0.1576233423267155</v>
+        <v>0.3342290650401338</v>
       </c>
       <c r="E4">
-        <v>0.1720354181609238</v>
+        <v>0.1101520043058812</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7073576951487439</v>
+        <v>0.0008560961317699965</v>
       </c>
       <c r="H4">
-        <v>1.513954719699683</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.628756560280507</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04098270576372087</v>
       </c>
       <c r="K4">
-        <v>0.4445151018194693</v>
+        <v>0.3477597572272302</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.690565261755971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4769663495342584</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.556501665129502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.242453515941406</v>
+        <v>1.285066876839807</v>
       </c>
       <c r="C5">
-        <v>0.5940916027663832</v>
+        <v>0.2310364229695949</v>
       </c>
       <c r="D5">
-        <v>0.1507988334702333</v>
+        <v>0.3267246855520511</v>
       </c>
       <c r="E5">
-        <v>0.1649620839953556</v>
+        <v>0.1079704000060531</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.682986086046995</v>
+        <v>0.000859279744445919</v>
       </c>
       <c r="H5">
-        <v>1.467577266032308</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.582224712662324</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.04035445405371618</v>
       </c>
       <c r="K5">
-        <v>0.4247756985913824</v>
+        <v>0.3337580938663791</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6601724165651675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4609403154290774</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.307604351072939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.232923749789592</v>
+        <v>1.276396384518023</v>
       </c>
       <c r="C6">
-        <v>0.5895019993494657</v>
+        <v>0.2293065031597195</v>
       </c>
       <c r="D6">
-        <v>0.1496699573727369</v>
+        <v>0.3254884553312394</v>
       </c>
       <c r="E6">
-        <v>0.1637934035382216</v>
+        <v>0.1076109731883008</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6789596475473303</v>
+        <v>0.0008598107094612659</v>
       </c>
       <c r="H6">
-        <v>1.459918611681559</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.574541110764841</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0402508854731316</v>
       </c>
       <c r="K6">
-        <v>0.421509367115533</v>
+        <v>0.3314532154797831</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6551460077803384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4583022987154237</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.266446882315876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.299255433370831</v>
+        <v>1.336995125418809</v>
       </c>
       <c r="C7">
-        <v>0.621462649538131</v>
+        <v>0.2414211311840688</v>
       </c>
       <c r="D7">
-        <v>0.1575310067853479</v>
+        <v>0.33412718448254</v>
       </c>
       <c r="E7">
-        <v>0.1719396232190675</v>
+        <v>0.1101223893743786</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7070276083923375</v>
+        <v>0.0008561389134842419</v>
       </c>
       <c r="H7">
-        <v>1.513326360219651</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.628126071447198</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.04097418153217802</v>
       </c>
       <c r="K7">
-        <v>0.4442481043969551</v>
+        <v>0.3475695491006263</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6901539755520005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4767486367211333</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.553133086992403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.597224239673892</v>
+        <v>1.615906414541286</v>
       </c>
       <c r="C8">
-        <v>0.7654531999882579</v>
+        <v>0.297859560012256</v>
       </c>
       <c r="D8">
-        <v>0.1929360155830437</v>
+        <v>0.3738243444122418</v>
       </c>
       <c r="E8">
-        <v>0.2088484372028745</v>
+        <v>0.121656057411677</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8342185607278623</v>
+        <v>0.0008402459973188735</v>
       </c>
       <c r="H8">
-        <v>1.755852813023182</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.871544880476293</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.04428652174474834</v>
       </c>
       <c r="K8">
-        <v>0.5464924558342332</v>
+        <v>0.4219530166600833</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8480046142038731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.561870518032805</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.847162231762411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.20806693331599</v>
+        <v>2.217891843131042</v>
       </c>
       <c r="C9">
-        <v>1.06271071186967</v>
+        <v>0.4230083774799311</v>
       </c>
       <c r="D9">
-        <v>0.2658921671044112</v>
+        <v>0.4589430497175897</v>
       </c>
       <c r="E9">
-        <v>0.2859230765918213</v>
+        <v>0.1463520912529859</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.09958378957171</v>
+        <v>0.0008098720396079173</v>
       </c>
       <c r="H9">
-        <v>2.263790053605732</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.381730177647157</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.051342429858245</v>
       </c>
       <c r="K9">
-        <v>0.7565854790707078</v>
+        <v>0.5834990326757321</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.174269165030431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.7463266243950599</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.53375604841654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.681619656068222</v>
+        <v>2.709942904825084</v>
       </c>
       <c r="C10">
-        <v>1.295020769553958</v>
+        <v>0.5282865532217897</v>
       </c>
       <c r="D10">
-        <v>0.3227131589556365</v>
+        <v>0.5277963989350951</v>
       </c>
       <c r="E10">
-        <v>0.3468178552174521</v>
+        <v>0.1662973060349273</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.308711990009357</v>
+        <v>0.0007876630104101509</v>
       </c>
       <c r="H10">
-        <v>2.66534928922502</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.785344056293056</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.05701635629983315</v>
       </c>
       <c r="K10">
-        <v>0.9198971044966413</v>
+        <v>0.716427807147241</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.429384970969423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.8974461379426231</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.65110612622507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.904746340600695</v>
+        <v>2.94924310102266</v>
       </c>
       <c r="C11">
-        <v>1.405036641780498</v>
+        <v>0.5803833448121338</v>
       </c>
       <c r="D11">
-        <v>0.3495484929181174</v>
+        <v>0.561024068147475</v>
       </c>
       <c r="E11">
-        <v>0.3758281924074254</v>
+        <v>0.1759128168473012</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.408118012111998</v>
+        <v>0.000777476412679028</v>
       </c>
       <c r="H11">
-        <v>2.856514701334021</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.977554663211549</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.05974578862928936</v>
       </c>
       <c r="K11">
-        <v>0.9969761608048202</v>
+        <v>0.7813386908951472</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.55020067749264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.9709864771054768</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.66041154413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.990579205088977</v>
+        <v>3.042578370299395</v>
       </c>
       <c r="C12">
-        <v>1.44745266466208</v>
+        <v>0.600856691131014</v>
       </c>
       <c r="D12">
-        <v>0.3598809427636667</v>
+        <v>0.573936735179899</v>
       </c>
       <c r="E12">
-        <v>0.3870403816659973</v>
+        <v>0.1796478145742313</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.446494260564066</v>
+        <v>0.000773595793318486</v>
       </c>
       <c r="H12">
-        <v>2.930358151599108</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.051811815366193</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.06080507827110893</v>
       </c>
       <c r="K12">
-        <v>1.02664929844866</v>
+        <v>0.8067011502845531</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.59677739076001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.9996732841533387</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.0508109409206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.972029864218371</v>
+        <v>3.022347018339929</v>
       </c>
       <c r="C13">
-        <v>1.438281670686365</v>
+        <v>0.5964116376395339</v>
       </c>
       <c r="D13">
-        <v>0.3576475761852578</v>
+        <v>0.5711400582245005</v>
       </c>
       <c r="E13">
-        <v>0.3846148736017483</v>
+        <v>0.1788389547190476</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.438194521868525</v>
+        <v>0.000774432788840889</v>
       </c>
       <c r="H13">
-        <v>2.91438589519484</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.0357496311088</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.06057571774356418</v>
       </c>
       <c r="K13">
-        <v>1.020235592069753</v>
+        <v>0.8012014656998048</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.586706984961836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.9934550292957809</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>14.96633823738034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.911779545251875</v>
+        <v>2.95686416081395</v>
       </c>
       <c r="C14">
-        <v>1.408510256884085</v>
+        <v>0.5820518358217441</v>
       </c>
       <c r="D14">
-        <v>0.3503949523767744</v>
+        <v>0.5620794218563958</v>
       </c>
       <c r="E14">
-        <v>0.3767458404980033</v>
+        <v>0.1762181143918227</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.411259798720693</v>
+        <v>0.0007771576890031213</v>
       </c>
       <c r="H14">
-        <v>2.862559253377611</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.983632879907802</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.05983239324301337</v>
       </c>
       <c r="K14">
-        <v>0.9994071345766287</v>
+        <v>0.7834086618474672</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.5540151095921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.9733287759226243</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.69235546282022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.87505649268644</v>
+        <v>2.917124456630518</v>
       </c>
       <c r="C15">
-        <v>1.390377084233819</v>
+        <v>0.5733578539917517</v>
       </c>
       <c r="D15">
-        <v>0.3459756418054099</v>
+        <v>0.5565743724956178</v>
       </c>
       <c r="E15">
-        <v>0.3719565947450363</v>
+        <v>0.1746255185272716</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.3948608774609</v>
+        <v>0.000778823378367684</v>
       </c>
       <c r="H15">
-        <v>2.831010739682824</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.95190905977968</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.05938058005942892</v>
       </c>
       <c r="K15">
-        <v>0.9867150027667293</v>
+        <v>0.7726167237790804</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.534102638690669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.9611150769816845</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.52565288359915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.667211779674687</v>
+        <v>2.694655036875361</v>
       </c>
       <c r="C16">
-        <v>1.287928998681423</v>
+        <v>0.5249778369100682</v>
       </c>
       <c r="D16">
-        <v>0.3209816057701715</v>
+        <v>0.5256677681881285</v>
       </c>
       <c r="E16">
-        <v>0.3449514334001762</v>
+        <v>0.1656811016416384</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.302311275143182</v>
+        <v>0.0007883261457210175</v>
       </c>
       <c r="H16">
-        <v>2.653046059890386</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.772974915024818</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.05684132055815994</v>
       </c>
       <c r="K16">
-        <v>0.9149227736716341</v>
+        <v>0.7122866483343842</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.421596773884758</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8927486177184818</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.58620005254107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.541832285379769</v>
+        <v>2.562456745370469</v>
       </c>
       <c r="C17">
-        <v>1.226278086101729</v>
+        <v>0.4964658199215819</v>
       </c>
       <c r="D17">
-        <v>0.3059202990112624</v>
+        <v>0.5072320239251269</v>
       </c>
       <c r="E17">
-        <v>0.3287452013904897</v>
+        <v>0.1603431603096865</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.246708070390667</v>
+        <v>0.0007941271476418818</v>
       </c>
       <c r="H17">
-        <v>2.546199354206294</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.66556318389064</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.0553244028785933</v>
       </c>
       <c r="K17">
-        <v>0.8716501038156963</v>
+        <v>0.6765060976066763</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.353891242576069</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8521325390480996</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.02270184312101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.470426635064314</v>
+        <v>2.487840235534861</v>
       </c>
       <c r="C18">
-        <v>1.191217232620943</v>
+        <v>0.4804522284741495</v>
       </c>
       <c r="D18">
-        <v>0.2973483948800322</v>
+        <v>0.4968037125456419</v>
       </c>
       <c r="E18">
-        <v>0.3195443670760341</v>
+        <v>0.1573228478173192</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.215120566345206</v>
+        <v>0.0007974566500745014</v>
       </c>
       <c r="H18">
-        <v>2.485527550076142</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.604576668590937</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0544655648772725</v>
       </c>
       <c r="K18">
-        <v>0.8470174194747813</v>
+        <v>0.6563338645159007</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.315387300547812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8292120211648211</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.70282223153407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.446365290441577</v>
+        <v>2.462806977804462</v>
       </c>
       <c r="C19">
-        <v>1.179411121457292</v>
+        <v>0.4750927712937596</v>
       </c>
       <c r="D19">
-        <v>0.2944609224587964</v>
+        <v>0.4933014760150343</v>
       </c>
       <c r="E19">
-        <v>0.3164487645698486</v>
+        <v>0.1563083671404648</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.204489933951038</v>
+        <v>0.0007985830491947843</v>
       </c>
       <c r="H19">
-        <v>2.465113244346384</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.584057512351492</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.05417700275926407</v>
       </c>
       <c r="K19">
-        <v>0.8387189511098043</v>
+        <v>0.6495700562978826</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.302421903935695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8215231966319081</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.59520038473033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.555104178920601</v>
+        <v>2.57637922958412</v>
       </c>
       <c r="C20">
-        <v>1.232798740055898</v>
+        <v>0.499460128519587</v>
       </c>
       <c r="D20">
-        <v>0.3075139946756167</v>
+        <v>0.5091760141607438</v>
       </c>
       <c r="E20">
-        <v>0.3304576476224952</v>
+        <v>0.1609061214305321</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.252585550187689</v>
+        <v>0.0007935104275642013</v>
       </c>
       <c r="H20">
-        <v>2.557490710437293</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.676913610198085</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.05548443944349657</v>
       </c>
       <c r="K20">
-        <v>0.8762294306569345</v>
+        <v>0.6802718531770395</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.361052279964227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8564095929163571</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.08223912434289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.929438123480281</v>
+        <v>2.976019821137925</v>
       </c>
       <c r="C21">
-        <v>1.417233176230184</v>
+        <v>0.5862481409834857</v>
       </c>
       <c r="D21">
-        <v>0.3525203455054822</v>
+        <v>0.5647312856800397</v>
       </c>
       <c r="E21">
-        <v>0.3790506767552131</v>
+        <v>0.1769852295792589</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.419150228961655</v>
+        <v>0.0007763580496981536</v>
       </c>
       <c r="H21">
-        <v>2.877740510984921</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.998898847032308</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.06004998822085028</v>
       </c>
       <c r="K21">
-        <v>1.005511052898456</v>
+        <v>0.7886123062890391</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.563593825333641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9792162277823877</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.77259419317363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.182033287064883</v>
+        <v>3.253363938948098</v>
       </c>
       <c r="C22">
-        <v>1.542253662408314</v>
+        <v>0.6474052360657936</v>
       </c>
       <c r="D22">
-        <v>0.3829452486486815</v>
+        <v>0.6029992229673269</v>
       </c>
       <c r="E22">
-        <v>0.4121528574916482</v>
+        <v>0.1880506714083481</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.532354961675736</v>
+        <v>0.0007650058116238292</v>
       </c>
       <c r="H22">
-        <v>3.09565052028799</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.218048464836428</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.06318647936324595</v>
       </c>
       <c r="K22">
-        <v>1.092881009570235</v>
+        <v>0.8640700669073311</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.700868117601033</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.064461296538468</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>15.92611189665269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.046404052533887</v>
+        <v>3.103667911527282</v>
       </c>
       <c r="C23">
-        <v>1.47506793704656</v>
+        <v>0.6143029858396574</v>
       </c>
       <c r="D23">
-        <v>0.3666037006834983</v>
+        <v>0.5823737706276404</v>
       </c>
       <c r="E23">
-        <v>0.394348113022609</v>
+        <v>0.1820877179884164</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.471493108832533</v>
+        <v>0.0007710820817895323</v>
       </c>
       <c r="H23">
-        <v>2.978472927245178</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.100198931641543</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.06149680089967191</v>
       </c>
       <c r="K23">
-        <v>1.045955032181169</v>
+        <v>0.8233147894880375</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.627100217297354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.018449849351825</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.30538351116337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.54910186506288</v>
+        <v>2.570080593004548</v>
       </c>
       <c r="C24">
-        <v>1.229849568833231</v>
+        <v>0.498105233308479</v>
       </c>
       <c r="D24">
-        <v>0.3067932158379136</v>
+        <v>0.5082966087227589</v>
       </c>
       <c r="E24">
-        <v>0.3296830910964914</v>
+        <v>0.1606514566620412</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.249927168163708</v>
+        <v>0.0007937892633349541</v>
       </c>
       <c r="H24">
-        <v>2.552383551160148</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.671779713936445</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.05541204593439275</v>
       </c>
       <c r="K24">
-        <v>0.8741583589333004</v>
+        <v>0.678568124289832</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.357813474398824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8544746076673775</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.05530971548271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.039163568364245</v>
+        <v>2.047645569126644</v>
       </c>
       <c r="C25">
-        <v>0.9802430539766647</v>
+        <v>0.3871879814354884</v>
       </c>
       <c r="D25">
-        <v>0.2456763808928315</v>
+        <v>0.4349624588109862</v>
       </c>
       <c r="E25">
-        <v>0.264436728965407</v>
+        <v>0.1393989443436574</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.025666553362953</v>
+        <v>0.0008180392230465908</v>
       </c>
       <c r="H25">
-        <v>2.12209471434906</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.239363376053149</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.049359809364379</v>
       </c>
       <c r="K25">
-        <v>0.6984285111910751</v>
+        <v>0.5376852782453057</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.083722362155548</v>
+        <v>0.6940946356079536</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.78610984297342</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.694695531620141</v>
+        <v>2.555430933043681</v>
       </c>
       <c r="C2">
-        <v>0.3139913568272164</v>
+        <v>0.4278190098764583</v>
       </c>
       <c r="D2">
-        <v>0.3850131562714409</v>
+        <v>0.2172558656263277</v>
       </c>
       <c r="E2">
-        <v>0.1249049337407513</v>
+        <v>0.05052461806336783</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008360052773253385</v>
+        <v>0.0008234581806349485</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5275340511806661</v>
       </c>
       <c r="J2">
-        <v>0.04521724428962415</v>
+        <v>0.0508722703494584</v>
       </c>
       <c r="K2">
-        <v>0.4430224064866053</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2736957658807597</v>
       </c>
       <c r="M2">
-        <v>0.5859671609992532</v>
+        <v>0.4871221322697892</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.206204037640958</v>
+        <v>2.762231961451619</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.469972181789615</v>
+        <v>2.224222302396129</v>
       </c>
       <c r="C3">
-        <v>0.2681949519874252</v>
+        <v>0.3776919855164067</v>
       </c>
       <c r="D3">
-        <v>0.3530689652222776</v>
+        <v>0.2090070535905113</v>
       </c>
       <c r="E3">
-        <v>0.1156271368570785</v>
+        <v>0.05197696418754472</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008483735815293153</v>
+        <v>0.0008285712613182568</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5400681182187128</v>
       </c>
       <c r="J3">
-        <v>0.04255683811459221</v>
+        <v>0.04814950356815473</v>
       </c>
       <c r="K3">
-        <v>0.3829927755153477</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2519773380270891</v>
       </c>
       <c r="M3">
-        <v>0.5172925077787838</v>
+        <v>0.4274961495352443</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.174923274705833</v>
+        <v>2.716357818429543</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.337709942975948</v>
+        <v>2.021614878998832</v>
       </c>
       <c r="C4">
-        <v>0.2415643658981423</v>
+        <v>0.3469347849417943</v>
       </c>
       <c r="D4">
-        <v>0.3342290650401338</v>
+        <v>0.2042471583905012</v>
       </c>
       <c r="E4">
-        <v>0.1101520043058812</v>
+        <v>0.052922711596191</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008560961317699965</v>
+        <v>0.0008318127122801308</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.549086207949685</v>
       </c>
       <c r="J4">
-        <v>0.04098270576372087</v>
+        <v>0.04647759421313324</v>
       </c>
       <c r="K4">
-        <v>0.3477597572272302</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2389120867525563</v>
       </c>
       <c r="M4">
-        <v>0.4769663495342584</v>
+        <v>0.3911147641857582</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.556501665129502</v>
+        <v>2.694646197006563</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.285066876839807</v>
+        <v>1.939203834420368</v>
       </c>
       <c r="C5">
-        <v>0.2310364229695949</v>
+        <v>0.3344008912659433</v>
       </c>
       <c r="D5">
-        <v>0.3267246855520511</v>
+        <v>0.2023807780917366</v>
       </c>
       <c r="E5">
-        <v>0.1079704000060531</v>
+        <v>0.05332151696769172</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000859279744445919</v>
+        <v>0.0008331598305735639</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5530804592404976</v>
       </c>
       <c r="J5">
-        <v>0.04035445405371618</v>
+        <v>0.04579597075448305</v>
       </c>
       <c r="K5">
-        <v>0.3337580938663791</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2336513920441803</v>
       </c>
       <c r="M5">
-        <v>0.4609403154290774</v>
+        <v>0.3763391591524794</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.307604351072939</v>
+        <v>2.687343078017221</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.276396384518023</v>
+        <v>1.925527757208158</v>
       </c>
       <c r="C6">
-        <v>0.2293065031597195</v>
+        <v>0.3323194928847499</v>
       </c>
       <c r="D6">
-        <v>0.3254884553312394</v>
+        <v>0.2020752004752779</v>
       </c>
       <c r="E6">
-        <v>0.1076109731883008</v>
+        <v>0.05338854304261531</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008598107094612659</v>
+        <v>0.0008333851166495993</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5537626158389735</v>
       </c>
       <c r="J6">
-        <v>0.0402508854731316</v>
+        <v>0.04568276145375805</v>
       </c>
       <c r="K6">
-        <v>0.3314532154797831</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2327815699186289</v>
       </c>
       <c r="M6">
-        <v>0.4583022987154237</v>
+        <v>0.3738884964233335</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.266446882315876</v>
+        <v>2.686221468930711</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.336995125418809</v>
+        <v>2.02050288194107</v>
       </c>
       <c r="C7">
-        <v>0.2414211311840688</v>
+        <v>0.3467657556346637</v>
       </c>
       <c r="D7">
-        <v>0.33412718448254</v>
+        <v>0.2042216951830369</v>
       </c>
       <c r="E7">
-        <v>0.1101223893743786</v>
+        <v>0.05292803596895901</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008561389134842419</v>
+        <v>0.0008318307732374348</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5491387998186141</v>
       </c>
       <c r="J7">
-        <v>0.04097418153217802</v>
+        <v>0.04646840319473711</v>
       </c>
       <c r="K7">
-        <v>0.3475695491006263</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2388408876687649</v>
       </c>
       <c r="M7">
-        <v>0.4767486367211333</v>
+        <v>0.3909153019409857</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.553133086992403</v>
+        <v>2.694541551604516</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.615906414541286</v>
+        <v>2.441050165850868</v>
       </c>
       <c r="C8">
-        <v>0.297859560012256</v>
+        <v>0.4105274956265248</v>
       </c>
       <c r="D8">
-        <v>0.3738243444122418</v>
+        <v>0.2143463111842721</v>
       </c>
       <c r="E8">
-        <v>0.121656057411677</v>
+        <v>0.05101407246969014</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008402459973188735</v>
+        <v>0.0008252003424785921</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5315732519435734</v>
       </c>
       <c r="J8">
-        <v>0.04428652174474834</v>
+        <v>0.04993331161108117</v>
       </c>
       <c r="K8">
-        <v>0.4219530166600833</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2661484984018472</v>
       </c>
       <c r="M8">
-        <v>0.561870518032805</v>
+        <v>0.4665108190162996</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.847162231762411</v>
+        <v>2.745025999766199</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.217891843131042</v>
+        <v>3.273575533069447</v>
       </c>
       <c r="C9">
-        <v>0.4230083774799311</v>
+        <v>0.5359977881296061</v>
       </c>
       <c r="D9">
-        <v>0.4589430497175897</v>
+        <v>0.2367820863545376</v>
       </c>
       <c r="E9">
-        <v>0.1463520912529859</v>
+        <v>0.04769741931947991</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008098720396079173</v>
+        <v>0.0008129808298976107</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5082479653073548</v>
       </c>
       <c r="J9">
-        <v>0.051342429858245</v>
+        <v>0.05674087840872843</v>
       </c>
       <c r="K9">
-        <v>0.5834990326757321</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3220545966773045</v>
       </c>
       <c r="M9">
-        <v>0.7463266243950599</v>
+        <v>0.6169441256454959</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.53375604841654</v>
+        <v>2.899034438170361</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.709942904825084</v>
+        <v>3.892818927634494</v>
       </c>
       <c r="C10">
-        <v>0.5282865532217897</v>
+        <v>0.6288562078860878</v>
       </c>
       <c r="D10">
-        <v>0.5277963989350951</v>
+        <v>0.255081951059779</v>
       </c>
       <c r="E10">
-        <v>0.1662973060349273</v>
+        <v>0.04553873359143967</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007876630104101509</v>
+        <v>0.0008044407404973572</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4988276568428063</v>
       </c>
       <c r="J10">
-        <v>0.05701635629983315</v>
+        <v>0.06177163814092879</v>
       </c>
       <c r="K10">
-        <v>0.716427807147241</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3648887516567498</v>
       </c>
       <c r="M10">
-        <v>0.8974461379426231</v>
+        <v>0.729371038366466</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.65110612622507</v>
+        <v>3.051378675511472</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.94924310102266</v>
+        <v>4.176863681804207</v>
       </c>
       <c r="C11">
-        <v>0.5803833448121338</v>
+        <v>0.6713475872193442</v>
       </c>
       <c r="D11">
-        <v>0.561024068147475</v>
+        <v>0.2638599158368891</v>
       </c>
       <c r="E11">
-        <v>0.1759128168473012</v>
+        <v>0.04461989720736526</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000777476412679028</v>
+        <v>0.0008006411929449194</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4964443160785379</v>
       </c>
       <c r="J11">
-        <v>0.05974578862928936</v>
+        <v>0.06407188731518687</v>
       </c>
       <c r="K11">
-        <v>0.7813386908951472</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3848359193842725</v>
       </c>
       <c r="M11">
-        <v>0.9709864771054768</v>
+        <v>0.7810689191161018</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.66041154413</v>
+        <v>3.130565607024863</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.042578370299395</v>
+        <v>4.284823260437236</v>
       </c>
       <c r="C12">
-        <v>0.600856691131014</v>
+        <v>0.6874829565309994</v>
       </c>
       <c r="D12">
-        <v>0.573936735179899</v>
+        <v>0.2672543560440204</v>
       </c>
       <c r="E12">
-        <v>0.1796478145742313</v>
+        <v>0.04428129880209308</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.000773595793318486</v>
+        <v>0.0007992138401127041</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4958360247425446</v>
       </c>
       <c r="J12">
-        <v>0.06080507827110893</v>
+        <v>0.06494509495966128</v>
       </c>
       <c r="K12">
-        <v>0.8067011502845531</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3924628734678919</v>
       </c>
       <c r="M12">
-        <v>0.9996732841533387</v>
+        <v>0.8007377107912248</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.0508109409206</v>
+        <v>3.162098076326885</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.022347018339929</v>
+        <v>4.261553514269792</v>
       </c>
       <c r="C13">
-        <v>0.5964116376395339</v>
+        <v>0.6840057726182351</v>
       </c>
       <c r="D13">
-        <v>0.5711400582245005</v>
+        <v>0.2665200829270873</v>
       </c>
       <c r="E13">
-        <v>0.1788389547190476</v>
+        <v>0.0443538020198746</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000774432788840889</v>
+        <v>0.0007995207505437136</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4959535966543811</v>
       </c>
       <c r="J13">
-        <v>0.06057571774356418</v>
+        <v>0.06475693040897568</v>
       </c>
       <c r="K13">
-        <v>0.8012014656998048</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3908168902661373</v>
       </c>
       <c r="M13">
-        <v>0.9934550292957809</v>
+        <v>0.7964973901948511</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.96633823738034</v>
+        <v>3.155236132452671</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.95686416081395</v>
+        <v>4.185737240152719</v>
       </c>
       <c r="C14">
-        <v>0.5820518358217441</v>
+        <v>0.6726741018256917</v>
       </c>
       <c r="D14">
-        <v>0.5620794218563958</v>
+        <v>0.2641377357372932</v>
       </c>
       <c r="E14">
-        <v>0.1762181143918227</v>
+        <v>0.04459185165298774</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007771576890031213</v>
+        <v>0.0008005235391917232</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4963882499171959</v>
       </c>
       <c r="J14">
-        <v>0.05983239324301337</v>
+        <v>0.06414368065270892</v>
       </c>
       <c r="K14">
-        <v>0.7834086618474672</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3854618803042769</v>
       </c>
       <c r="M14">
-        <v>0.9733287759226243</v>
+        <v>0.7826851663376715</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.69235546282022</v>
+        <v>3.133128064134212</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.917124456630518</v>
+        <v>4.139351295975132</v>
       </c>
       <c r="C15">
-        <v>0.5733578539917517</v>
+        <v>0.6657392397216313</v>
       </c>
       <c r="D15">
-        <v>0.5565743724956178</v>
+        <v>0.2626878121003671</v>
       </c>
       <c r="E15">
-        <v>0.1746255185272716</v>
+        <v>0.04473888903933698</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000778823378367684</v>
+        <v>0.0008011392421972222</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4966934493920903</v>
       </c>
       <c r="J15">
-        <v>0.05938058005942892</v>
+        <v>0.06376834246592367</v>
       </c>
       <c r="K15">
-        <v>0.7726167237790804</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3821915582403932</v>
       </c>
       <c r="M15">
-        <v>0.9611150769816845</v>
+        <v>0.7742371325855402</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.52565288359915</v>
+        <v>3.119791462498199</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.694655036875361</v>
+        <v>3.87430822198445</v>
       </c>
       <c r="C16">
-        <v>0.5249778369100682</v>
+        <v>0.6260850627595005</v>
       </c>
       <c r="D16">
-        <v>0.5256677681881285</v>
+        <v>0.2545178494047207</v>
       </c>
       <c r="E16">
-        <v>0.1656811016416384</v>
+        <v>0.04560007468081739</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007883261457210175</v>
+        <v>0.0008046906988999977</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4990234194948826</v>
       </c>
       <c r="J16">
-        <v>0.05684132055815994</v>
+        <v>0.06162158638491277</v>
       </c>
       <c r="K16">
-        <v>0.7122866483343842</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3635950331210722</v>
       </c>
       <c r="M16">
-        <v>0.8927486177184818</v>
+        <v>0.726004634982317</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.58620005254107</v>
+        <v>3.046412950791961</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.562456745370469</v>
+        <v>3.712355550274083</v>
       </c>
       <c r="C17">
-        <v>0.4964658199215819</v>
+        <v>0.6018285329526805</v>
       </c>
       <c r="D17">
-        <v>0.5072320239251269</v>
+        <v>0.2496255297665471</v>
       </c>
       <c r="E17">
-        <v>0.1603431603096865</v>
+        <v>0.04614474209147801</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007941271476418818</v>
+        <v>0.0008068907039142458</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.5009541421863446</v>
       </c>
       <c r="J17">
-        <v>0.0553244028785933</v>
+        <v>0.0603079440098675</v>
       </c>
       <c r="K17">
-        <v>0.6765060976066763</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3523097184579171</v>
       </c>
       <c r="M17">
-        <v>0.8521325390480996</v>
+        <v>0.6965658990225023</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.02270184312101</v>
+        <v>3.004014801965781</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.487840235534861</v>
+        <v>3.619421730322358</v>
       </c>
       <c r="C18">
-        <v>0.4804522284741495</v>
+        <v>0.5878997341395689</v>
       </c>
       <c r="D18">
-        <v>0.4968037125456419</v>
+        <v>0.2468539229422788</v>
       </c>
       <c r="E18">
-        <v>0.1573228478173192</v>
+        <v>0.04646394856145797</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007974566500745014</v>
+        <v>0.0008081641780931698</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.5022423306134556</v>
       </c>
       <c r="J18">
-        <v>0.0544655648772725</v>
+        <v>0.05955344547139774</v>
       </c>
       <c r="K18">
-        <v>0.6563338645159007</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3458617079811006</v>
       </c>
       <c r="M18">
-        <v>0.8292120211648211</v>
+        <v>0.6796848998219787</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.70282223153407</v>
+        <v>2.980550851112497</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.462806977804462</v>
+        <v>3.587991462860259</v>
       </c>
       <c r="C19">
-        <v>0.4750927712937596</v>
+        <v>0.5831873594243575</v>
       </c>
       <c r="D19">
-        <v>0.4933014760150343</v>
+        <v>0.2459226212142624</v>
       </c>
       <c r="E19">
-        <v>0.1563083671404648</v>
+        <v>0.0465730368610604</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007985830491947843</v>
+        <v>0.0008085967679896899</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.5027084033153457</v>
       </c>
       <c r="J19">
-        <v>0.05417700275926407</v>
+        <v>0.05929815615061074</v>
       </c>
       <c r="K19">
-        <v>0.6495700562978826</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.343685704519558</v>
       </c>
       <c r="M19">
-        <v>0.8215231966319081</v>
+        <v>0.6739777533332187</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.59520038473033</v>
+        <v>2.972761143338744</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.57637922958412</v>
+        <v>3.72957280160233</v>
       </c>
       <c r="C20">
-        <v>0.499460128519587</v>
+        <v>0.6044082482891042</v>
       </c>
       <c r="D20">
-        <v>0.5091760141607438</v>
+        <v>0.250141908355701</v>
       </c>
       <c r="E20">
-        <v>0.1609061214305321</v>
+        <v>0.04608614592943905</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007935104275642013</v>
+        <v>0.0008066556781672061</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.5007300787795046</v>
       </c>
       <c r="J20">
-        <v>0.05548443944349657</v>
+        <v>0.06044766910808264</v>
       </c>
       <c r="K20">
-        <v>0.6802718531770395</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3535065598556599</v>
       </c>
       <c r="M20">
-        <v>0.8564095929163571</v>
+        <v>0.6996942996019513</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.08223912434289</v>
+        <v>3.008431828359505</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.976019821137925</v>
+        <v>4.207995008649618</v>
       </c>
       <c r="C21">
-        <v>0.5862481409834857</v>
+        <v>0.6760011971135782</v>
       </c>
       <c r="D21">
-        <v>0.5647312856800397</v>
+        <v>0.2648355339577222</v>
       </c>
       <c r="E21">
-        <v>0.1769852295792589</v>
+        <v>0.0445216748973003</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007763580496981536</v>
+        <v>0.0008002286918558088</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4962524226562408</v>
       </c>
       <c r="J21">
-        <v>0.06004998822085028</v>
+        <v>0.06432374459974355</v>
       </c>
       <c r="K21">
-        <v>0.7886123062890391</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3870327258438948</v>
       </c>
       <c r="M21">
-        <v>0.9792162277823877</v>
+        <v>0.7867395537960533</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.77259419317363</v>
+        <v>3.139578732621885</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.253363938948098</v>
+        <v>4.52302331780129</v>
       </c>
       <c r="C22">
-        <v>0.6474052360657936</v>
+        <v>0.7230572298513209</v>
       </c>
       <c r="D22">
-        <v>0.6029992229673269</v>
+        <v>0.2748518459635392</v>
       </c>
       <c r="E22">
-        <v>0.1880506714083481</v>
+        <v>0.04355380835129541</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007650058116238292</v>
+        <v>0.0007960946139063528</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4950519044679353</v>
       </c>
       <c r="J22">
-        <v>0.06318647936324595</v>
+        <v>0.06686978332685811</v>
       </c>
       <c r="K22">
-        <v>0.8640700669073311</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4093755040503453</v>
       </c>
       <c r="M22">
-        <v>1.064461296538468</v>
+        <v>0.8441709285280297</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.92611189665269</v>
+        <v>3.234368365296774</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.103667911527282</v>
+        <v>4.354650238640147</v>
       </c>
       <c r="C23">
-        <v>0.6143029858396574</v>
+        <v>0.6979150480832743</v>
       </c>
       <c r="D23">
-        <v>0.5823737706276404</v>
+        <v>0.2694663028822788</v>
       </c>
       <c r="E23">
-        <v>0.1820877179884164</v>
+        <v>0.04406528867741955</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007710820817895323</v>
+        <v>0.0007982952694898778</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4955274147736617</v>
       </c>
       <c r="J23">
-        <v>0.06149680089967191</v>
+        <v>0.06550957765927024</v>
       </c>
       <c r="K23">
-        <v>0.8233147894880375</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3974087885407727</v>
       </c>
       <c r="M23">
-        <v>1.018449849351825</v>
+        <v>0.8134647863114068</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.30538351116337</v>
+        <v>3.182902734740111</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.570080593004548</v>
+        <v>3.721788341914021</v>
       </c>
       <c r="C24">
-        <v>0.498105233308479</v>
+        <v>0.6032419079337501</v>
       </c>
       <c r="D24">
-        <v>0.5082966087227589</v>
+        <v>0.2499083261156017</v>
       </c>
       <c r="E24">
-        <v>0.1606514566620412</v>
+        <v>0.04611261836747271</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007937892633349541</v>
+        <v>0.0008067619062483552</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.5008308243688475</v>
       </c>
       <c r="J24">
-        <v>0.05541204593439275</v>
+        <v>0.06038449714604965</v>
       </c>
       <c r="K24">
-        <v>0.678568124289832</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3529653435814168</v>
       </c>
       <c r="M24">
-        <v>0.8544746076673775</v>
+        <v>0.6982798144255327</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.05530971548271</v>
+        <v>3.006432061499282</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.047645569126644</v>
+        <v>3.047240008191636</v>
       </c>
       <c r="C25">
-        <v>0.3871879814354884</v>
+        <v>0.501967948130897</v>
       </c>
       <c r="D25">
-        <v>0.4349624588109862</v>
+        <v>0.2304122594198503</v>
       </c>
       <c r="E25">
-        <v>0.1393989443436574</v>
+        <v>0.04854673859205416</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008180392230465908</v>
+        <v>0.0008162066658833776</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5132749637266301</v>
       </c>
       <c r="J25">
-        <v>0.049359809364379</v>
+        <v>0.05489577419538705</v>
       </c>
       <c r="K25">
-        <v>0.5376852782453057</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3066463651994837</v>
       </c>
       <c r="M25">
-        <v>0.6940946356079536</v>
+        <v>0.5759574490756805</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.78610984297342</v>
+        <v>2.850923443408789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.555430933043681</v>
+        <v>1.497172313306464</v>
       </c>
       <c r="C2">
-        <v>0.4278190098764583</v>
+        <v>0.1386889568703396</v>
       </c>
       <c r="D2">
-        <v>0.2172558656263277</v>
+        <v>0.4686512189832825</v>
       </c>
       <c r="E2">
-        <v>0.05052461806336783</v>
+        <v>0.1436258580032064</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008234581806349485</v>
+        <v>0.002526051250973015</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5275340511806661</v>
+        <v>1.326209116498454</v>
       </c>
       <c r="J2">
-        <v>0.0508722703494584</v>
+        <v>0.05864987886410589</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2736957658807597</v>
+        <v>0.4556374798074643</v>
       </c>
       <c r="M2">
-        <v>0.4871221322697892</v>
+        <v>0.4043823545685896</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.762231961451619</v>
+        <v>5.923380952013247</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.224222302396129</v>
+        <v>1.401937764878426</v>
       </c>
       <c r="C3">
-        <v>0.3776919855164067</v>
+        <v>0.1225450772920453</v>
       </c>
       <c r="D3">
-        <v>0.2090070535905113</v>
+        <v>0.4694133419567663</v>
       </c>
       <c r="E3">
-        <v>0.05197696418754472</v>
+        <v>0.144675058875305</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008285712613182568</v>
+        <v>0.002529431048235218</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5400681182187128</v>
+        <v>1.340486853545684</v>
       </c>
       <c r="J3">
-        <v>0.04814950356815473</v>
+        <v>0.05769887180640509</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2519773380270891</v>
+        <v>0.4520788122979269</v>
       </c>
       <c r="M3">
-        <v>0.4274961495352443</v>
+        <v>0.3885009025617379</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.716357818429543</v>
+        <v>5.961890986998213</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.021614878998832</v>
+        <v>1.343759904210515</v>
       </c>
       <c r="C4">
-        <v>0.3469347849417943</v>
+        <v>0.1125822551207136</v>
       </c>
       <c r="D4">
-        <v>0.2042471583905012</v>
+        <v>0.4700748876633298</v>
       </c>
       <c r="E4">
-        <v>0.052922711596191</v>
+        <v>0.1453589704484628</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008318127122801308</v>
+        <v>0.002531617775186718</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.549086207949685</v>
+        <v>1.349963396191097</v>
       </c>
       <c r="J4">
-        <v>0.04647759421313324</v>
+        <v>0.05710957526181204</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2389120867525563</v>
+        <v>0.4500634677193176</v>
       </c>
       <c r="M4">
-        <v>0.3911147641857582</v>
+        <v>0.3788683928763845</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.694646197006563</v>
+        <v>5.988883739872108</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.939203834420368</v>
+        <v>1.320128016791216</v>
       </c>
       <c r="C5">
-        <v>0.3344008912659433</v>
+        <v>0.1085098176845634</v>
       </c>
       <c r="D5">
-        <v>0.2023807780917366</v>
+        <v>0.4703932201784227</v>
       </c>
       <c r="E5">
-        <v>0.05332151696769172</v>
+        <v>0.1456476671964921</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008331598305735639</v>
+        <v>0.002532537011928194</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5530804592404976</v>
+        <v>1.354003601078613</v>
       </c>
       <c r="J5">
-        <v>0.04579597075448305</v>
+        <v>0.05686808978462565</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2336513920441803</v>
+        <v>0.4492849854772913</v>
       </c>
       <c r="M5">
-        <v>0.3763391591524794</v>
+        <v>0.374973201884103</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.687343078017221</v>
+        <v>6.000724816051815</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.925527757208158</v>
+        <v>1.316208598266996</v>
       </c>
       <c r="C6">
-        <v>0.3323194928847499</v>
+        <v>0.1078328422610753</v>
       </c>
       <c r="D6">
-        <v>0.2020752004752779</v>
+        <v>0.4704490251889766</v>
       </c>
       <c r="E6">
-        <v>0.05338854304261531</v>
+        <v>0.145696209316164</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008333851166495993</v>
+        <v>0.002532691351770542</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5537626158389735</v>
+        <v>1.354685248625813</v>
       </c>
       <c r="J6">
-        <v>0.04568276145375805</v>
+        <v>0.05682791050045211</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2327815699186289</v>
+        <v>0.4491583067772069</v>
       </c>
       <c r="M6">
-        <v>0.3738884964233335</v>
+        <v>0.3743282364663472</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.686221468930711</v>
+        <v>6.002741818277627</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.02050288194107</v>
+        <v>1.343440886342194</v>
       </c>
       <c r="C7">
-        <v>0.3467657556346637</v>
+        <v>0.1125273832159053</v>
       </c>
       <c r="D7">
-        <v>0.2042216951830369</v>
+        <v>0.4700789833431287</v>
       </c>
       <c r="E7">
-        <v>0.05292803596895901</v>
+        <v>0.1453628234156339</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008318307732374348</v>
+        <v>0.00253163005829482</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5491387998186141</v>
+        <v>1.350017161442267</v>
       </c>
       <c r="J7">
-        <v>0.04646840319473711</v>
+        <v>0.05710632392728598</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2388408876687649</v>
+        <v>0.4500527954362283</v>
       </c>
       <c r="M7">
-        <v>0.3909153019409857</v>
+        <v>0.3788157385933673</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.694541551604516</v>
+        <v>5.989040026919412</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.441050165850868</v>
+        <v>1.464274757152737</v>
       </c>
       <c r="C8">
-        <v>0.4105274956265248</v>
+        <v>0.1331331078802123</v>
       </c>
       <c r="D8">
-        <v>0.2143463111842721</v>
+        <v>0.468873855719707</v>
       </c>
       <c r="E8">
-        <v>0.05101407246969014</v>
+        <v>0.1439793921358099</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008252003424785921</v>
+        <v>0.002527193511197472</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5315732519435734</v>
+        <v>1.330984677503437</v>
       </c>
       <c r="J8">
-        <v>0.04993331161108117</v>
+        <v>0.05832309222721932</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2661484984018472</v>
+        <v>0.4543752995011801</v>
       </c>
       <c r="M8">
-        <v>0.4665108190162996</v>
+        <v>0.3988819358774123</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.745025999766199</v>
+        <v>5.935964187834145</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.273575533069447</v>
+        <v>1.703529736640974</v>
       </c>
       <c r="C9">
-        <v>0.5359977881296061</v>
+        <v>0.1731353089502647</v>
       </c>
       <c r="D9">
-        <v>0.2367820863545376</v>
+        <v>0.4680442398539668</v>
       </c>
       <c r="E9">
-        <v>0.04769741931947991</v>
+        <v>0.1415807871450214</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008129808298976107</v>
+        <v>0.002519374385849036</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5082479653073548</v>
+        <v>1.299299050380213</v>
       </c>
       <c r="J9">
-        <v>0.05674087840872843</v>
+        <v>0.06066623851658548</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3220545966773045</v>
+        <v>0.4641938909685166</v>
       </c>
       <c r="M9">
-        <v>0.6169441256454959</v>
+        <v>0.4391645004063633</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.899034438170361</v>
+        <v>5.858465596935815</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.892818927634494</v>
+        <v>1.880660815822409</v>
       </c>
       <c r="C10">
-        <v>0.6288562078860878</v>
+        <v>0.202273120476292</v>
       </c>
       <c r="D10">
-        <v>0.255081951059779</v>
+        <v>0.4683668841085051</v>
       </c>
       <c r="E10">
-        <v>0.04553873359143967</v>
+        <v>0.1400091646264334</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008044407404973572</v>
+        <v>0.002514161227929085</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4988276568428063</v>
+        <v>1.279461319644952</v>
       </c>
       <c r="J10">
-        <v>0.06177163814092879</v>
+        <v>0.06236134741941868</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3648887516567498</v>
+        <v>0.4722214092813743</v>
       </c>
       <c r="M10">
-        <v>0.729371038366466</v>
+        <v>0.469319377678957</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.051378675511472</v>
+        <v>5.817768948563725</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.176863681804207</v>
+        <v>1.961525989579968</v>
       </c>
       <c r="C11">
-        <v>0.6713475872193442</v>
+        <v>0.2154732280830558</v>
       </c>
       <c r="D11">
-        <v>0.2638599158368891</v>
+        <v>0.4687155283262854</v>
       </c>
       <c r="E11">
-        <v>0.04461989720736526</v>
+        <v>0.139335379716151</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008006411929449194</v>
+        <v>0.002511903881848123</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4964443160785379</v>
+        <v>1.271185105370833</v>
       </c>
       <c r="J11">
-        <v>0.06407188731518687</v>
+        <v>0.06312672693169574</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3848359193842725</v>
+        <v>0.4760492023848713</v>
       </c>
       <c r="M11">
-        <v>0.7810689191161018</v>
+        <v>0.4831573130625912</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.130565607024863</v>
+        <v>5.802789818370769</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.284823260437236</v>
+        <v>1.992187652123903</v>
       </c>
       <c r="C12">
-        <v>0.6874829565309994</v>
+        <v>0.2204637555300906</v>
       </c>
       <c r="D12">
-        <v>0.2672543560440204</v>
+        <v>0.4688765255034326</v>
       </c>
       <c r="E12">
-        <v>0.04428129880209308</v>
+        <v>0.1390861376879311</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007992138401127041</v>
+        <v>0.002511065409035007</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4958360247425446</v>
+        <v>1.268158798982881</v>
       </c>
       <c r="J12">
-        <v>0.06494509495966128</v>
+        <v>0.06341572511260551</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3924628734678919</v>
+        <v>0.4775239068631834</v>
       </c>
       <c r="M12">
-        <v>0.8007377107912248</v>
+        <v>0.4884144665082104</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.162098076326885</v>
+        <v>5.797626406150414</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.261553514269792</v>
+        <v>1.985582369871508</v>
       </c>
       <c r="C13">
-        <v>0.6840057726182351</v>
+        <v>0.219389317808151</v>
       </c>
       <c r="D13">
-        <v>0.2665200829270873</v>
+        <v>0.468840564175764</v>
       </c>
       <c r="E13">
-        <v>0.0443538020198746</v>
+        <v>0.1391395539542897</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007995207505437136</v>
+        <v>0.002511245264018589</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4959535966543811</v>
+        <v>1.2688057751839</v>
       </c>
       <c r="J13">
-        <v>0.06475693040897568</v>
+        <v>0.0633535214509493</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3908168902661373</v>
+        <v>0.4772051837510389</v>
       </c>
       <c r="M13">
-        <v>0.7964973901948511</v>
+        <v>0.4872814915057049</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.155236132452671</v>
+        <v>5.79871579689916</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.185737240152719</v>
+        <v>1.964047754633157</v>
       </c>
       <c r="C14">
-        <v>0.6726741018256917</v>
+        <v>0.2158839644876309</v>
       </c>
       <c r="D14">
-        <v>0.2641377357372932</v>
+        <v>0.4687281933131118</v>
       </c>
       <c r="E14">
-        <v>0.04459185165298774</v>
+        <v>0.1393147561351427</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008005235391917232</v>
+        <v>0.002511834573236602</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4963882499171959</v>
+        <v>1.270933969695186</v>
       </c>
       <c r="J14">
-        <v>0.06414368065270892</v>
+        <v>0.0631505197652622</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3854618803042769</v>
+        <v>0.4761700227526973</v>
       </c>
       <c r="M14">
-        <v>0.7826851663376715</v>
+        <v>0.4835894825517357</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.133128064134212</v>
+        <v>5.802354819157074</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.139351295975132</v>
+        <v>1.950862315437632</v>
       </c>
       <c r="C15">
-        <v>0.6657392397216313</v>
+        <v>0.2137357784459084</v>
       </c>
       <c r="D15">
-        <v>0.2626878121003671</v>
+        <v>0.4686631344297325</v>
       </c>
       <c r="E15">
-        <v>0.04473888903933698</v>
+        <v>0.1394228412647243</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008011392421972222</v>
+        <v>0.002512197667260188</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4966934493920903</v>
+        <v>1.27225158244071</v>
       </c>
       <c r="J15">
-        <v>0.06376834246592367</v>
+        <v>0.06302606641277819</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3821915582403932</v>
+        <v>0.4755392355475863</v>
       </c>
       <c r="M15">
-        <v>0.7742371325855402</v>
+        <v>0.4813302298238682</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.119791462498199</v>
+        <v>5.804650113991244</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.87430822198445</v>
+        <v>1.875381736450322</v>
       </c>
       <c r="C16">
-        <v>0.6260850627595005</v>
+        <v>0.2014093434533493</v>
       </c>
       <c r="D16">
-        <v>0.2545178494047207</v>
+        <v>0.4683481567934393</v>
       </c>
       <c r="E16">
-        <v>0.04560007468081739</v>
+        <v>0.1400540251340843</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008046906988999977</v>
+        <v>0.002514311041077251</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4990234194948826</v>
+        <v>1.280017255149005</v>
       </c>
       <c r="J16">
-        <v>0.06162158638491277</v>
+        <v>0.06231121183704147</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3635950331210722</v>
+        <v>0.4719747867363111</v>
       </c>
       <c r="M16">
-        <v>0.726004634982317</v>
+        <v>0.468417433785433</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.046412950791961</v>
+        <v>5.818819040520083</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.712355550274083</v>
+        <v>1.829149340735569</v>
       </c>
       <c r="C17">
-        <v>0.6018285329526805</v>
+        <v>0.1938333012908515</v>
       </c>
       <c r="D17">
-        <v>0.2496255297665471</v>
+        <v>0.4682065926550933</v>
       </c>
       <c r="E17">
-        <v>0.04614474209147801</v>
+        <v>0.1404517678191981</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008068907039142458</v>
+        <v>0.002515636706568676</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5009541421863446</v>
+        <v>1.284972945200892</v>
       </c>
       <c r="J17">
-        <v>0.0603079440098675</v>
+        <v>0.06187119601627344</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3523097184579171</v>
+        <v>0.469833120104127</v>
       </c>
       <c r="M17">
-        <v>0.6965658990225023</v>
+        <v>0.4605264741790904</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.004014801965781</v>
+        <v>5.828416836464214</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.619421730322358</v>
+        <v>1.802584828362114</v>
       </c>
       <c r="C18">
-        <v>0.5878997341395689</v>
+        <v>0.1894706122266712</v>
       </c>
       <c r="D18">
-        <v>0.2468539229422788</v>
+        <v>0.4681441731429743</v>
       </c>
       <c r="E18">
-        <v>0.04646394856145797</v>
+        <v>0.1406844132306162</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008081641780931698</v>
+        <v>0.002516409942882021</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5022423306134556</v>
+        <v>1.287893730125752</v>
       </c>
       <c r="J18">
-        <v>0.05955344547139774</v>
+        <v>0.06161757142303514</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3458617079811006</v>
+        <v>0.4686178659237044</v>
       </c>
       <c r="M18">
-        <v>0.6796848998219787</v>
+        <v>0.455999145315289</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.980550851112497</v>
+        <v>5.834269829063373</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.587991462860259</v>
+        <v>1.793595249376438</v>
       </c>
       <c r="C19">
-        <v>0.5831873594243575</v>
+        <v>0.1879926017485047</v>
       </c>
       <c r="D19">
-        <v>0.2459226212142624</v>
+        <v>0.4681263047018405</v>
       </c>
       <c r="E19">
-        <v>0.0465730368610604</v>
+        <v>0.1407638487644292</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008085967679896899</v>
+        <v>0.002516673596184165</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5027084033153457</v>
+        <v>1.288894745109609</v>
       </c>
       <c r="J19">
-        <v>0.05929815615061074</v>
+        <v>0.0615316062010649</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.343685704519558</v>
+        <v>0.4682092520577896</v>
       </c>
       <c r="M19">
-        <v>0.6739777533332187</v>
+        <v>0.4544682260630424</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.972761143338744</v>
+        <v>5.836308654574566</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.72957280160233</v>
+        <v>1.834068060659263</v>
       </c>
       <c r="C20">
-        <v>0.6044082482891042</v>
+        <v>0.1946403182460585</v>
       </c>
       <c r="D20">
-        <v>0.250141908355701</v>
+        <v>0.4682196959166447</v>
       </c>
       <c r="E20">
-        <v>0.04608614592943905</v>
+        <v>0.1404090265406213</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008066556781672061</v>
+        <v>0.002515494475349433</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5007300787795046</v>
+        <v>1.284438116027729</v>
       </c>
       <c r="J20">
-        <v>0.06044766910808264</v>
+        <v>0.06191809232191758</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3535065598556599</v>
+        <v>0.4700593894469876</v>
       </c>
       <c r="M20">
-        <v>0.6996942996019513</v>
+        <v>0.4613653084105209</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.008431828359505</v>
+        <v>5.827360707526339</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.207995008649618</v>
+        <v>1.970371925859752</v>
       </c>
       <c r="C21">
-        <v>0.6760011971135782</v>
+        <v>0.2169137921051458</v>
       </c>
       <c r="D21">
-        <v>0.2648355339577222</v>
+        <v>0.4687604134784351</v>
       </c>
       <c r="E21">
-        <v>0.0445216748973003</v>
+        <v>0.139263134825713</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008002286918558088</v>
+        <v>0.002511661036118938</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4962524226562408</v>
+        <v>1.270305942830788</v>
       </c>
       <c r="J21">
-        <v>0.06432374459974355</v>
+        <v>0.06321016900527354</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3870327258438948</v>
+        <v>0.4764733915293817</v>
       </c>
       <c r="M21">
-        <v>0.7867395537960533</v>
+        <v>0.4846734551367931</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.139578732621885</v>
+        <v>5.801272134408038</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.52302331780129</v>
+        <v>2.059685521263873</v>
       </c>
       <c r="C22">
-        <v>0.7230572298513209</v>
+        <v>0.2314236920702513</v>
       </c>
       <c r="D22">
-        <v>0.2748518459635392</v>
+        <v>0.4692826558912202</v>
       </c>
       <c r="E22">
-        <v>0.04355380835129541</v>
+        <v>0.1385486456531408</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007960946139063528</v>
+        <v>0.002509250840626365</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4950519044679353</v>
+        <v>1.261697671594604</v>
       </c>
       <c r="J22">
-        <v>0.06686978332685811</v>
+        <v>0.06404974761555238</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4093755040503453</v>
+        <v>0.4808121599828752</v>
       </c>
       <c r="M22">
-        <v>0.8441709285280297</v>
+        <v>0.5000058003674468</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.234368365296774</v>
+        <v>5.787188080546514</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.354650238640147</v>
+        <v>2.01199653184625</v>
       </c>
       <c r="C23">
-        <v>0.6979150480832743</v>
+        <v>0.2236838550255129</v>
       </c>
       <c r="D23">
-        <v>0.2694663028822788</v>
+        <v>0.4689884936263269</v>
       </c>
       <c r="E23">
-        <v>0.04406528867741955</v>
+        <v>0.1389268367957577</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007982952694898778</v>
+        <v>0.002510528524373282</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4955274147736617</v>
+        <v>1.266234565138966</v>
       </c>
       <c r="J23">
-        <v>0.06550957765927024</v>
+        <v>0.06360209738528511</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3974087885407727</v>
+        <v>0.4784830775985114</v>
       </c>
       <c r="M23">
-        <v>0.8134647863114068</v>
+        <v>0.4918136597623004</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.182902734740111</v>
+        <v>5.794433360977109</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.721788341914021</v>
+        <v>1.831844260206253</v>
       </c>
       <c r="C24">
-        <v>0.6032419079337501</v>
+        <v>0.1942754880534494</v>
       </c>
       <c r="D24">
-        <v>0.2499083261156017</v>
+        <v>0.4682137128466479</v>
       </c>
       <c r="E24">
-        <v>0.04611261836747271</v>
+        <v>0.140428337481195</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008067619062483552</v>
+        <v>0.002515558743474687</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5008308243688475</v>
+        <v>1.284679688983211</v>
       </c>
       <c r="J24">
-        <v>0.06038449714604965</v>
+        <v>0.06189689253718456</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3529653435814168</v>
+        <v>0.4699570431731814</v>
       </c>
       <c r="M24">
-        <v>0.6982798144255327</v>
+        <v>0.4609860424998473</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.006432061499282</v>
+        <v>5.827837139654179</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.047240008191636</v>
+        <v>1.638564093208515</v>
       </c>
       <c r="C25">
-        <v>0.501967948130897</v>
+        <v>0.1623575521518319</v>
       </c>
       <c r="D25">
-        <v>0.2304122594198503</v>
+        <v>0.4681047755509127</v>
       </c>
       <c r="E25">
-        <v>0.04854673859205416</v>
+        <v>0.1421961263259695</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008162066658833776</v>
+        <v>0.002521395925878219</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5132749637266301</v>
+        <v>1.307266832883876</v>
       </c>
       <c r="J25">
-        <v>0.05489577419538705</v>
+        <v>0.060036975618317</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3066463651994837</v>
+        <v>0.461394473909877</v>
       </c>
       <c r="M25">
-        <v>0.5759574490756805</v>
+        <v>0.4281681161068036</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.850923443408789</v>
+        <v>5.876581427243224</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.497172313306464</v>
+        <v>2.555430933043738</v>
       </c>
       <c r="C2">
-        <v>0.1386889568703396</v>
+        <v>0.4278190098767993</v>
       </c>
       <c r="D2">
-        <v>0.4686512189832825</v>
+        <v>0.2172558656263277</v>
       </c>
       <c r="E2">
-        <v>0.1436258580032064</v>
+        <v>0.05052461806336517</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002526051250973015</v>
+        <v>0.0008234581806356122</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.326209116498454</v>
+        <v>0.5275340511806696</v>
       </c>
       <c r="J2">
-        <v>0.05864987886410589</v>
+        <v>0.05087227034952591</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4556374798074643</v>
+        <v>0.2736957658807739</v>
       </c>
       <c r="M2">
-        <v>0.4043823545685896</v>
+        <v>0.4871221322697963</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.923380952013247</v>
+        <v>2.762231961451619</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.401937764878426</v>
+        <v>2.224222302396015</v>
       </c>
       <c r="C3">
-        <v>0.1225450772920453</v>
+        <v>0.377691985516492</v>
       </c>
       <c r="D3">
-        <v>0.4694133419567663</v>
+        <v>0.2090070535903834</v>
       </c>
       <c r="E3">
-        <v>0.144675058875305</v>
+        <v>0.05197696418754472</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002529431048235218</v>
+        <v>0.0008285712613188884</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.340486853545684</v>
+        <v>0.5400681182186879</v>
       </c>
       <c r="J3">
-        <v>0.05769887180640509</v>
+        <v>0.04814950356812986</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4520788122979269</v>
+        <v>0.2519773380270038</v>
       </c>
       <c r="M3">
-        <v>0.3885009025617379</v>
+        <v>0.4274961495352514</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.961890986998213</v>
+        <v>2.716357818429401</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.343759904210515</v>
+        <v>2.02161487899906</v>
       </c>
       <c r="C4">
-        <v>0.1125822551207136</v>
+        <v>0.346934784941908</v>
       </c>
       <c r="D4">
-        <v>0.4700748876633298</v>
+        <v>0.2042471583903307</v>
       </c>
       <c r="E4">
-        <v>0.1453589704484628</v>
+        <v>0.05292271159617101</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002531617775186718</v>
+        <v>0.0008318127122494821</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.349963396191097</v>
+        <v>0.5490862079496956</v>
       </c>
       <c r="J4">
-        <v>0.05710957526181204</v>
+        <v>0.04647759421317943</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4500634677193176</v>
+        <v>0.2389120867525705</v>
       </c>
       <c r="M4">
-        <v>0.3788683928763845</v>
+        <v>0.3911147641857511</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.988883739872108</v>
+        <v>2.694646197006591</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.320128016791216</v>
+        <v>1.939203834420596</v>
       </c>
       <c r="C5">
-        <v>0.1085098176845634</v>
+        <v>0.3344008912658012</v>
       </c>
       <c r="D5">
-        <v>0.4703932201784227</v>
+        <v>0.2023807780918219</v>
       </c>
       <c r="E5">
-        <v>0.1456476671964921</v>
+        <v>0.05332151696769971</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002532537011928194</v>
+        <v>0.0008331598305978596</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.354003601078613</v>
+        <v>0.5530804592404763</v>
       </c>
       <c r="J5">
-        <v>0.05686808978462565</v>
+        <v>0.04579597075453634</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4492849854772913</v>
+        <v>0.2336513920440808</v>
       </c>
       <c r="M5">
-        <v>0.374973201884103</v>
+        <v>0.3763391591524652</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.000724816051815</v>
+        <v>2.687343078017193</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.316208598266996</v>
+        <v>1.925527757208158</v>
       </c>
       <c r="C6">
-        <v>0.1078328422610753</v>
+        <v>0.3323194928848068</v>
       </c>
       <c r="D6">
-        <v>0.4704490251889766</v>
+        <v>0.2020752004752637</v>
       </c>
       <c r="E6">
-        <v>0.145696209316164</v>
+        <v>0.05338854304262997</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002532691351770542</v>
+        <v>0.0008333851166195934</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.354685248625813</v>
+        <v>0.5537626158389521</v>
       </c>
       <c r="J6">
-        <v>0.05682791050045211</v>
+        <v>0.04568276145372963</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4491583067772069</v>
+        <v>0.232781569918707</v>
       </c>
       <c r="M6">
-        <v>0.3743282364663472</v>
+        <v>0.3738884964233335</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.002741818277627</v>
+        <v>2.686221468930711</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.343440886342194</v>
+        <v>2.020502881940956</v>
       </c>
       <c r="C7">
-        <v>0.1125273832159053</v>
+        <v>0.3467657556344079</v>
       </c>
       <c r="D7">
-        <v>0.4700789833431287</v>
+        <v>0.204221695183179</v>
       </c>
       <c r="E7">
-        <v>0.1453628234156339</v>
+        <v>0.05292803596894524</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00253163005829482</v>
+        <v>0.0008318307732578883</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.350017161442267</v>
+        <v>0.5491387998186248</v>
       </c>
       <c r="J7">
-        <v>0.05710632392728598</v>
+        <v>0.04646840319469803</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4500527954362283</v>
+        <v>0.2388408876685446</v>
       </c>
       <c r="M7">
-        <v>0.3788157385933673</v>
+        <v>0.3909153019409857</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.989040026919412</v>
+        <v>2.694541551604516</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.464274757152737</v>
+        <v>2.441050165850868</v>
       </c>
       <c r="C8">
-        <v>0.1331331078802123</v>
+        <v>0.4105274956266101</v>
       </c>
       <c r="D8">
-        <v>0.468873855719707</v>
+        <v>0.2143463111840873</v>
       </c>
       <c r="E8">
-        <v>0.1439793921358099</v>
+        <v>0.05101407246964396</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002527193511197472</v>
+        <v>0.0008252003425080548</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.330984677503437</v>
+        <v>0.5315732519435699</v>
       </c>
       <c r="J8">
-        <v>0.05832309222721932</v>
+        <v>0.04993331161107761</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4543752995011801</v>
+        <v>0.2661484984019609</v>
       </c>
       <c r="M8">
-        <v>0.3988819358774123</v>
+        <v>0.4665108190163139</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.935964187834145</v>
+        <v>2.745025999766227</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.703529736640974</v>
+        <v>3.273575533069334</v>
       </c>
       <c r="C9">
-        <v>0.1731353089502647</v>
+        <v>0.5359977881294924</v>
       </c>
       <c r="D9">
-        <v>0.4680442398539668</v>
+        <v>0.2367820863544807</v>
       </c>
       <c r="E9">
-        <v>0.1415807871450214</v>
+        <v>0.04769741931949678</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002519374385849036</v>
+        <v>0.0008129808299269717</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.299299050380213</v>
+        <v>0.508247965307369</v>
       </c>
       <c r="J9">
-        <v>0.06066623851658548</v>
+        <v>0.05674087840870001</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4641938909685166</v>
+        <v>0.3220545966773187</v>
       </c>
       <c r="M9">
-        <v>0.4391645004063633</v>
+        <v>0.6169441256454888</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.858465596935815</v>
+        <v>2.899034438170361</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.880660815822409</v>
+        <v>3.892818927634437</v>
       </c>
       <c r="C10">
-        <v>0.202273120476292</v>
+        <v>0.6288562078856614</v>
       </c>
       <c r="D10">
-        <v>0.4683668841085051</v>
+        <v>0.255081951059708</v>
       </c>
       <c r="E10">
-        <v>0.1400091646264334</v>
+        <v>0.04553873359145211</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002514161227929085</v>
+        <v>0.0008044407404960271</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.279461319644952</v>
+        <v>0.4988276568428205</v>
       </c>
       <c r="J10">
-        <v>0.06236134741941868</v>
+        <v>0.06177163814104247</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4722214092813743</v>
+        <v>0.3648887516568209</v>
       </c>
       <c r="M10">
-        <v>0.469319377678957</v>
+        <v>0.7293710383664518</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.817768948563725</v>
+        <v>3.051378675511558</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.961525989579968</v>
+        <v>4.176863681804207</v>
       </c>
       <c r="C11">
-        <v>0.2154732280830558</v>
+        <v>0.6713475872192589</v>
       </c>
       <c r="D11">
-        <v>0.4687155283262854</v>
+        <v>0.2638599158369885</v>
       </c>
       <c r="E11">
-        <v>0.139335379716151</v>
+        <v>0.04461989720733062</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002511903881848123</v>
+        <v>0.000800641193002893</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.271185105370833</v>
+        <v>0.4964443160785308</v>
       </c>
       <c r="J11">
-        <v>0.06312672693169574</v>
+        <v>0.06407188731517977</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4760492023848713</v>
+        <v>0.3848359193842157</v>
       </c>
       <c r="M11">
-        <v>0.4831573130625912</v>
+        <v>0.7810689191160947</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.802789818370769</v>
+        <v>3.130565607024863</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.992187652123903</v>
+        <v>4.284823260436895</v>
       </c>
       <c r="C12">
-        <v>0.2204637555300906</v>
+        <v>0.6874829565304594</v>
       </c>
       <c r="D12">
-        <v>0.4688765255034326</v>
+        <v>0.2672543560439209</v>
       </c>
       <c r="E12">
-        <v>0.1390861376879311</v>
+        <v>0.04428129880209131</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002511065409035007</v>
+        <v>0.0007992138401409129</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.268158798982881</v>
+        <v>0.4958360247425659</v>
       </c>
       <c r="J12">
-        <v>0.06341572511260551</v>
+        <v>0.0649450949596897</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4775239068631834</v>
+        <v>0.3924628734679061</v>
       </c>
       <c r="M12">
-        <v>0.4884144665082104</v>
+        <v>0.8007377107912106</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.797626406150414</v>
+        <v>3.162098076326885</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.985582369871508</v>
+        <v>4.261553514269906</v>
       </c>
       <c r="C13">
-        <v>0.219389317808151</v>
+        <v>0.6840057726181783</v>
       </c>
       <c r="D13">
-        <v>0.468840564175764</v>
+        <v>0.2665200829269452</v>
       </c>
       <c r="E13">
-        <v>0.1391395539542897</v>
+        <v>0.0443538020199048</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002511245264018589</v>
+        <v>0.0007995207505438726</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.2688057751839</v>
+        <v>0.4959535966543953</v>
       </c>
       <c r="J13">
-        <v>0.0633535214509493</v>
+        <v>0.06475693040903963</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4772051837510389</v>
+        <v>0.3908168902660805</v>
       </c>
       <c r="M13">
-        <v>0.4872814915057049</v>
+        <v>0.7964973901948511</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.79871579689916</v>
+        <v>3.155236132452728</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.964047754633157</v>
+        <v>4.185737240152662</v>
       </c>
       <c r="C14">
-        <v>0.2158839644876309</v>
+        <v>0.6726741018254074</v>
       </c>
       <c r="D14">
-        <v>0.4687281933131118</v>
+        <v>0.2641377357372221</v>
       </c>
       <c r="E14">
-        <v>0.1393147561351427</v>
+        <v>0.04459185165303303</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002511834573236602</v>
+        <v>0.0008005235391913977</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.270933969695186</v>
+        <v>0.4963882499171959</v>
       </c>
       <c r="J14">
-        <v>0.0631505197652622</v>
+        <v>0.06414368065279774</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4761700227526973</v>
+        <v>0.3854618803042342</v>
       </c>
       <c r="M14">
-        <v>0.4835894825517357</v>
+        <v>0.7826851663376857</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.802354819157074</v>
+        <v>3.13312806413424</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.950862315437632</v>
+        <v>4.139351295975075</v>
       </c>
       <c r="C15">
-        <v>0.2137357784459084</v>
+        <v>0.6657392397217166</v>
       </c>
       <c r="D15">
-        <v>0.4686631344297325</v>
+        <v>0.262687812100296</v>
       </c>
       <c r="E15">
-        <v>0.1394228412647243</v>
+        <v>0.04473888903935119</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002512197667260188</v>
+        <v>0.0008011392422303707</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.27225158244071</v>
+        <v>0.4966934493920974</v>
       </c>
       <c r="J15">
-        <v>0.06302606641277819</v>
+        <v>0.06376834246591656</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4755392355475863</v>
+        <v>0.3821915582404074</v>
       </c>
       <c r="M15">
-        <v>0.4813302298238682</v>
+        <v>0.7742371325855402</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.804650113991244</v>
+        <v>3.119791462498227</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.875381736450322</v>
+        <v>3.874308221984506</v>
       </c>
       <c r="C16">
-        <v>0.2014093434533493</v>
+        <v>0.6260850627595573</v>
       </c>
       <c r="D16">
-        <v>0.4683481567934393</v>
+        <v>0.2545178494047207</v>
       </c>
       <c r="E16">
-        <v>0.1400540251340843</v>
+        <v>0.04560007468082006</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002514311041077251</v>
+        <v>0.0008046906989286996</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.280017255149005</v>
+        <v>0.4990234194948968</v>
       </c>
       <c r="J16">
-        <v>0.06231121183704147</v>
+        <v>0.06162158638496251</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4719747867363111</v>
+        <v>0.3635950331210296</v>
       </c>
       <c r="M16">
-        <v>0.468417433785433</v>
+        <v>0.7260046349823099</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.818819040520083</v>
+        <v>3.046412950792018</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.829149340735569</v>
+        <v>3.712355550273969</v>
       </c>
       <c r="C17">
-        <v>0.1938333012908515</v>
+        <v>0.6018285329527941</v>
       </c>
       <c r="D17">
-        <v>0.4682065926550933</v>
+        <v>0.2496255297666039</v>
       </c>
       <c r="E17">
-        <v>0.1404517678191981</v>
+        <v>0.04614474209149311</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002515636706568676</v>
+        <v>0.0008068907038848343</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.284972945200892</v>
+        <v>0.5009541421863446</v>
       </c>
       <c r="J17">
-        <v>0.06187119601627344</v>
+        <v>0.06030794400999184</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.469833120104127</v>
+        <v>0.3523097184578461</v>
       </c>
       <c r="M17">
-        <v>0.4605264741790904</v>
+        <v>0.6965658990225236</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.828416836464214</v>
+        <v>3.004014801965809</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.802584828362114</v>
+        <v>3.619421730322244</v>
       </c>
       <c r="C18">
-        <v>0.1894706122266712</v>
+        <v>0.5878997341395973</v>
       </c>
       <c r="D18">
-        <v>0.4681441731429743</v>
+        <v>0.2468539229421509</v>
       </c>
       <c r="E18">
-        <v>0.1406844132306162</v>
+        <v>0.04646394856147218</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002516409942882021</v>
+        <v>0.0008081641780304425</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.287893730125752</v>
+        <v>0.5022423306134414</v>
       </c>
       <c r="J18">
-        <v>0.06161757142303514</v>
+        <v>0.05955344547145813</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4686178659237044</v>
+        <v>0.3458617079811006</v>
       </c>
       <c r="M18">
-        <v>0.455999145315289</v>
+        <v>0.6796848998219858</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.834269829063373</v>
+        <v>2.980550851112469</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.793595249376438</v>
+        <v>3.587991462860145</v>
       </c>
       <c r="C19">
-        <v>0.1879926017485047</v>
+        <v>0.5831873594245849</v>
       </c>
       <c r="D19">
-        <v>0.4681263047018405</v>
+        <v>0.2459226212142198</v>
       </c>
       <c r="E19">
-        <v>0.1407638487644292</v>
+        <v>0.04657303686105774</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002516673596184165</v>
+        <v>0.0008085967680206358</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.288894745109609</v>
+        <v>0.5027084033153315</v>
       </c>
       <c r="J19">
-        <v>0.0615316062010649</v>
+        <v>0.05929815615064626</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4682092520577896</v>
+        <v>0.3436857045195154</v>
       </c>
       <c r="M19">
-        <v>0.4544682260630424</v>
+        <v>0.6739777533332258</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.836308654574566</v>
+        <v>2.972761143338772</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.834068060659263</v>
+        <v>3.729572801602387</v>
       </c>
       <c r="C20">
-        <v>0.1946403182460585</v>
+        <v>0.6044082482892179</v>
       </c>
       <c r="D20">
-        <v>0.4682196959166447</v>
+        <v>0.2501419083556158</v>
       </c>
       <c r="E20">
-        <v>0.1404090265406213</v>
+        <v>0.04608614592944171</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002515494475349433</v>
+        <v>0.0008066556781085448</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.284438116027729</v>
+        <v>0.5007300787795046</v>
       </c>
       <c r="J20">
-        <v>0.06191809232191758</v>
+        <v>0.06044766910804356</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4700593894469876</v>
+        <v>0.3535065598556457</v>
       </c>
       <c r="M20">
-        <v>0.4613653084105209</v>
+        <v>0.6996942996019371</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.827360707526339</v>
+        <v>3.008431828359591</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.970371925859752</v>
+        <v>4.207995008649732</v>
       </c>
       <c r="C21">
-        <v>0.2169137921051458</v>
+        <v>0.6760011971136919</v>
       </c>
       <c r="D21">
-        <v>0.4687604134784351</v>
+        <v>0.2648355339576085</v>
       </c>
       <c r="E21">
-        <v>0.139263134825713</v>
+        <v>0.04452167489729852</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002511661036118938</v>
+        <v>0.00080022869191845</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.270305942830788</v>
+        <v>0.4962524226562266</v>
       </c>
       <c r="J21">
-        <v>0.06321016900527354</v>
+        <v>0.0643237445996796</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4764733915293817</v>
+        <v>0.3870327258438664</v>
       </c>
       <c r="M21">
-        <v>0.4846734551367931</v>
+        <v>0.7867395537960462</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.801272134408038</v>
+        <v>3.139578732621857</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.059685521263873</v>
+        <v>4.523023317801119</v>
       </c>
       <c r="C22">
-        <v>0.2314236920702513</v>
+        <v>0.7230572298516904</v>
       </c>
       <c r="D22">
-        <v>0.4692826558912202</v>
+        <v>0.2748518459636244</v>
       </c>
       <c r="E22">
-        <v>0.1385486456531408</v>
+        <v>0.04355380835127232</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002509250840626365</v>
+        <v>0.0007960946139274455</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.261697671594604</v>
+        <v>0.4950519044679567</v>
       </c>
       <c r="J22">
-        <v>0.06404974761555238</v>
+        <v>0.06686978332702154</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4808121599828752</v>
+        <v>0.4093755040503595</v>
       </c>
       <c r="M22">
-        <v>0.5000058003674468</v>
+        <v>0.844170928527987</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.787188080546514</v>
+        <v>3.234368365296916</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.01199653184625</v>
+        <v>4.35465023864009</v>
       </c>
       <c r="C23">
-        <v>0.2236838550255129</v>
+        <v>0.6979150480834448</v>
       </c>
       <c r="D23">
-        <v>0.4689884936263269</v>
+        <v>0.269466302882293</v>
       </c>
       <c r="E23">
-        <v>0.1389268367957577</v>
+        <v>0.04406528867740622</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002510528524373282</v>
+        <v>0.0007982952694607814</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.266234565138966</v>
+        <v>0.4955274147736404</v>
       </c>
       <c r="J23">
-        <v>0.06360209738528511</v>
+        <v>0.06550957765925247</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4784830775985114</v>
+        <v>0.3974087885407727</v>
       </c>
       <c r="M23">
-        <v>0.4918136597623004</v>
+        <v>0.8134647863114068</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.794433360977109</v>
+        <v>3.182902734740054</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.831844260206253</v>
+        <v>3.721788341914134</v>
       </c>
       <c r="C24">
-        <v>0.1942754880534494</v>
+        <v>0.6032419079338354</v>
       </c>
       <c r="D24">
-        <v>0.4682137128466479</v>
+        <v>0.2499083261157153</v>
       </c>
       <c r="E24">
-        <v>0.140428337481195</v>
+        <v>0.04611261836748426</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002515558743474687</v>
+        <v>0.0008067619062760489</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.284679688983211</v>
+        <v>0.5008308243688688</v>
       </c>
       <c r="J24">
-        <v>0.06189689253718456</v>
+        <v>0.06038449714600347</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4699570431731814</v>
+        <v>0.3529653435813742</v>
       </c>
       <c r="M24">
-        <v>0.4609860424998473</v>
+        <v>0.6982798144255469</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.827837139654179</v>
+        <v>3.006432061499282</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.638564093208515</v>
+        <v>3.04724000819175</v>
       </c>
       <c r="C25">
-        <v>0.1623575521518319</v>
+        <v>0.5019679481310675</v>
       </c>
       <c r="D25">
-        <v>0.4681047755509127</v>
+        <v>0.2304122594197793</v>
       </c>
       <c r="E25">
-        <v>0.1421961263259695</v>
+        <v>0.04854673859203551</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002521395925878219</v>
+        <v>0.0008162066658821108</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.307266832883876</v>
+        <v>0.5132749637266372</v>
       </c>
       <c r="J25">
-        <v>0.060036975618317</v>
+        <v>0.05489577419537994</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.461394473909877</v>
+        <v>0.306646365199498</v>
       </c>
       <c r="M25">
-        <v>0.4281681161068036</v>
+        <v>0.5759574490756734</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.876581427243224</v>
+        <v>2.850923443408817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.555430933043738</v>
+        <v>0.8002640322401646</v>
       </c>
       <c r="C2">
-        <v>0.4278190098767993</v>
+        <v>0.1531122122490842</v>
       </c>
       <c r="D2">
-        <v>0.2172558656263277</v>
+        <v>0.4349110383197257</v>
       </c>
       <c r="E2">
-        <v>0.05052461806336517</v>
+        <v>0.1592830513795569</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008234581806356122</v>
+        <v>0.4755341494638046</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.006854874138121525</v>
       </c>
       <c r="I2">
-        <v>0.5275340511806696</v>
+        <v>0.004127980572691925</v>
       </c>
       <c r="J2">
-        <v>0.05087227034952591</v>
+        <v>0.4040508522888047</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3785358686392577</v>
       </c>
       <c r="L2">
-        <v>0.2736957658807739</v>
+        <v>0.07157908082096753</v>
       </c>
       <c r="M2">
-        <v>0.4871221322697963</v>
+        <v>0.9004950781417165</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.762231961451619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3671380028842179</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.800281294048361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.224222302396015</v>
+        <v>0.6984631551191853</v>
       </c>
       <c r="C3">
-        <v>0.377691985516492</v>
+        <v>0.1353850554904028</v>
       </c>
       <c r="D3">
-        <v>0.2090070535903834</v>
+        <v>0.396320877346426</v>
       </c>
       <c r="E3">
-        <v>0.05197696418754472</v>
+        <v>0.1449168843866495</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008285712613188884</v>
+        <v>0.4646596396575333</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.009266287637162279</v>
       </c>
       <c r="I3">
-        <v>0.5400681182186879</v>
+        <v>0.00560289416183668</v>
       </c>
       <c r="J3">
-        <v>0.04814950356812986</v>
+        <v>0.4032270286768949</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.380793459443808</v>
       </c>
       <c r="L3">
-        <v>0.2519773380270038</v>
+        <v>0.06463291757753709</v>
       </c>
       <c r="M3">
-        <v>0.4274961495352514</v>
+        <v>0.787747130868496</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.716357818429401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3208642389476992</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.775214604402095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.02161487899906</v>
+        <v>0.6357017548434669</v>
       </c>
       <c r="C4">
-        <v>0.346934784941908</v>
+        <v>0.1246472443384761</v>
       </c>
       <c r="D4">
-        <v>0.2042471583903307</v>
+        <v>0.3727666822469615</v>
       </c>
       <c r="E4">
-        <v>0.05292271159617101</v>
+        <v>0.1360907366834461</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008318127122494821</v>
+        <v>0.4583238730724375</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0109916302036393</v>
       </c>
       <c r="I4">
-        <v>0.5490862079496956</v>
+        <v>0.006702133993992998</v>
       </c>
       <c r="J4">
-        <v>0.04647759421317943</v>
+        <v>0.4029608845917139</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3823800147251006</v>
       </c>
       <c r="L4">
-        <v>0.2389120867525705</v>
+        <v>0.0603502190663967</v>
       </c>
       <c r="M4">
-        <v>0.3911147641857511</v>
+        <v>0.7185189644808787</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.694646197006591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2924828420302461</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.761041067939459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.939203834420596</v>
+        <v>0.6097414318202823</v>
       </c>
       <c r="C5">
-        <v>0.3344008912658012</v>
+        <v>0.120696855791266</v>
       </c>
       <c r="D5">
-        <v>0.2023807780918219</v>
+        <v>0.3631784695350859</v>
       </c>
       <c r="E5">
-        <v>0.05332151696769971</v>
+        <v>0.1324759285734451</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008331598305978596</v>
+        <v>0.4553292780463849</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01175706719408588</v>
       </c>
       <c r="I5">
-        <v>0.5530804592404763</v>
+        <v>0.007277502482766707</v>
       </c>
       <c r="J5">
-        <v>0.04579597075453634</v>
+        <v>0.402652356359674</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3826888689682981</v>
       </c>
       <c r="L5">
-        <v>0.2336513920440808</v>
+        <v>0.05858704263878067</v>
       </c>
       <c r="M5">
-        <v>0.3763391591524652</v>
+        <v>0.6906311669388998</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.687343078017193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2810003795915605</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.753969314573141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.925527757208158</v>
+        <v>0.6050369273796434</v>
       </c>
       <c r="C6">
-        <v>0.3323194928848068</v>
+        <v>0.120523402163883</v>
       </c>
       <c r="D6">
-        <v>0.2020752004752637</v>
+        <v>0.3615613034371279</v>
       </c>
       <c r="E6">
-        <v>0.05338854304262997</v>
+        <v>0.1318562279202204</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008333851166195934</v>
+        <v>0.4542323262603816</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01189138448026381</v>
       </c>
       <c r="I6">
-        <v>0.5537626158389521</v>
+        <v>0.00748156863906857</v>
       </c>
       <c r="J6">
-        <v>0.04568276145372963</v>
+        <v>0.4022883948423157</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3822711230429299</v>
       </c>
       <c r="L6">
-        <v>0.232781569918707</v>
+        <v>0.05827842641952685</v>
       </c>
       <c r="M6">
-        <v>0.3738884964233335</v>
+        <v>0.686402557195251</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.686221468930711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2791893925588624</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.750868670059035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.020502881940956</v>
+        <v>0.6342838083253071</v>
       </c>
       <c r="C7">
-        <v>0.3467657556344079</v>
+        <v>0.1259081690291595</v>
       </c>
       <c r="D7">
-        <v>0.204221695183179</v>
+        <v>0.3725640410951314</v>
       </c>
       <c r="E7">
-        <v>0.05292803596894524</v>
+        <v>0.1359895023028059</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008318307732578883</v>
+        <v>0.4566337726293881</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01101119123763238</v>
       </c>
       <c r="I7">
-        <v>0.5491387998186248</v>
+        <v>0.006982250929124412</v>
       </c>
       <c r="J7">
-        <v>0.04646840319469803</v>
+        <v>0.4020949834212573</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3810975246716666</v>
       </c>
       <c r="L7">
-        <v>0.2388408876685446</v>
+        <v>0.0602841890920125</v>
       </c>
       <c r="M7">
-        <v>0.3909153019409857</v>
+        <v>0.7192457315343006</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.694541551604516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2925889443031338</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.755643773850451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.441050165850868</v>
+        <v>0.7637870138424887</v>
       </c>
       <c r="C8">
-        <v>0.4105274956266101</v>
+        <v>0.1487219162351749</v>
       </c>
       <c r="D8">
-        <v>0.2143463111840873</v>
+        <v>0.4214786434229296</v>
       </c>
       <c r="E8">
-        <v>0.05101407246964396</v>
+        <v>0.1542615196919641</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008252003425080548</v>
+        <v>0.4695397032333304</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.007643985471993214</v>
       </c>
       <c r="I8">
-        <v>0.5315732519435699</v>
+        <v>0.00492236523515821</v>
       </c>
       <c r="J8">
-        <v>0.04993331161107761</v>
+        <v>0.4025867468388071</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3775850995047954</v>
       </c>
       <c r="L8">
-        <v>0.2661484984019609</v>
+        <v>0.06913155223584511</v>
       </c>
       <c r="M8">
-        <v>0.4665108190163139</v>
+        <v>0.8630899613262386</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.745025999766227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3515218089701619</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.784409836161359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.273575533069334</v>
+        <v>1.017761405877849</v>
       </c>
       <c r="C9">
-        <v>0.5359977881294924</v>
+        <v>0.1923805469741779</v>
       </c>
       <c r="D9">
-        <v>0.2367820863544807</v>
+        <v>0.5187855779425092</v>
       </c>
       <c r="E9">
-        <v>0.04769741931949678</v>
+        <v>0.1901906703509653</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008129808299269717</v>
+        <v>0.5006715888351607</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003074384997969082</v>
       </c>
       <c r="I9">
-        <v>0.508247965307369</v>
+        <v>0.002091169167297124</v>
       </c>
       <c r="J9">
-        <v>0.05674087840870001</v>
+        <v>0.4070514218471999</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3746298645400898</v>
       </c>
       <c r="L9">
-        <v>0.3220545966773187</v>
+        <v>0.08645387560875406</v>
       </c>
       <c r="M9">
-        <v>0.6169441256454888</v>
+        <v>1.143431843021943</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.899034438170361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4669880012080085</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.860433710994414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.892818927634437</v>
+        <v>1.20573537492885</v>
       </c>
       <c r="C10">
-        <v>0.6288562078856614</v>
+        <v>0.2255091650254002</v>
       </c>
       <c r="D10">
-        <v>0.255081951059708</v>
+        <v>0.5794632045227956</v>
       </c>
       <c r="E10">
-        <v>0.04553873359145211</v>
+        <v>0.2085582463156399</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008044407404960271</v>
+        <v>0.5166951335751975</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001393384241062279</v>
       </c>
       <c r="I10">
-        <v>0.4988276568428205</v>
+        <v>0.001269936962632556</v>
       </c>
       <c r="J10">
-        <v>0.06177163814104247</v>
+        <v>0.407145317714992</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3685673908345919</v>
       </c>
       <c r="L10">
-        <v>0.3648887516568209</v>
+        <v>0.0932027264929971</v>
       </c>
       <c r="M10">
-        <v>0.7293710383664518</v>
+        <v>1.35217466867212</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.051378675511558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5426708988264579</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.895058779234517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.176863681804207</v>
+        <v>1.315426996894445</v>
       </c>
       <c r="C11">
-        <v>0.6713475872192589</v>
+        <v>0.2377730272880285</v>
       </c>
       <c r="D11">
-        <v>0.2638599158369885</v>
+        <v>0.5084263416067074</v>
       </c>
       <c r="E11">
-        <v>0.04461989720733062</v>
+        <v>0.1532906690156999</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000800641193002893</v>
+        <v>0.4544903945738668</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0200116238211514</v>
       </c>
       <c r="I11">
-        <v>0.4964443160785308</v>
+        <v>0.001643083468958473</v>
       </c>
       <c r="J11">
-        <v>0.06407188731517977</v>
+        <v>0.3719174249566208</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3281862325571971</v>
       </c>
       <c r="L11">
-        <v>0.3848359193842157</v>
+        <v>0.05560648669521839</v>
       </c>
       <c r="M11">
-        <v>0.7810689191160947</v>
+        <v>1.464093589099235</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.130565607024863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4952149020029211</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.689610217464377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.284823260436895</v>
+        <v>1.371354314665069</v>
       </c>
       <c r="C12">
-        <v>0.6874829565304594</v>
+        <v>0.2388617478945747</v>
       </c>
       <c r="D12">
-        <v>0.2672543560439209</v>
+        <v>0.440009795863773</v>
       </c>
       <c r="E12">
-        <v>0.04428129880209131</v>
+        <v>0.1116427286971096</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007992138401409129</v>
+        <v>0.4040046269448112</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05887331206787394</v>
       </c>
       <c r="I12">
-        <v>0.4958360247425659</v>
+        <v>0.001616946433143696</v>
       </c>
       <c r="J12">
-        <v>0.0649450949596897</v>
+        <v>0.3446962034619361</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2995328732406861</v>
       </c>
       <c r="L12">
-        <v>0.3924628734679061</v>
+        <v>0.03746757194162953</v>
       </c>
       <c r="M12">
-        <v>0.8007377107912106</v>
+        <v>1.513347086503074</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.162098076326885</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4410469139278277</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.52564858368811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.261553514269906</v>
+        <v>1.386893795376011</v>
       </c>
       <c r="C13">
-        <v>0.6840057726181783</v>
+        <v>0.2334924591816474</v>
       </c>
       <c r="D13">
-        <v>0.2665200829269452</v>
+        <v>0.3698559147658784</v>
       </c>
       <c r="E13">
-        <v>0.0443538020199048</v>
+        <v>0.0780912844317605</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007995207505438726</v>
+        <v>0.3569494681880698</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1149704116744772</v>
       </c>
       <c r="I13">
-        <v>0.4959535966543953</v>
+        <v>0.001643065798934806</v>
       </c>
       <c r="J13">
-        <v>0.06475693040903963</v>
+        <v>0.3206308874117028</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2761047312522678</v>
       </c>
       <c r="L13">
-        <v>0.3908168902660805</v>
+        <v>0.03300577793931669</v>
       </c>
       <c r="M13">
-        <v>0.7964973901948511</v>
+        <v>1.518494559211973</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.155236132452728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3793904151266503</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.37547708340675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.185737240152662</v>
+        <v>1.379084232018442</v>
       </c>
       <c r="C14">
-        <v>0.6726741018254074</v>
+        <v>0.2272479675617802</v>
       </c>
       <c r="D14">
-        <v>0.2641377357372221</v>
+        <v>0.3209693173417634</v>
       </c>
       <c r="E14">
-        <v>0.04459185165303303</v>
+        <v>0.05959933014493046</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008005235391913977</v>
+        <v>0.3258118477940428</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1646401992511812</v>
       </c>
       <c r="I14">
-        <v>0.4963882499171959</v>
+        <v>0.00178337973961451</v>
       </c>
       <c r="J14">
-        <v>0.06414368065279774</v>
+        <v>0.3052850232141253</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2621694682843678</v>
       </c>
       <c r="L14">
-        <v>0.3854618803042342</v>
+        <v>0.03797981838436293</v>
       </c>
       <c r="M14">
-        <v>0.7826851663376857</v>
+        <v>1.502457348737806</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.13312806413424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3336635822325675</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.27727343012198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.139351295975075</v>
+        <v>1.367869050392301</v>
       </c>
       <c r="C15">
-        <v>0.6657392397217166</v>
+        <v>0.2249123771813828</v>
       </c>
       <c r="D15">
-        <v>0.262687812100296</v>
+        <v>0.3082328235019389</v>
       </c>
       <c r="E15">
-        <v>0.04473888903935119</v>
+        <v>0.05570669528104766</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008011392422303707</v>
+        <v>0.3181859345845766</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1772969391041954</v>
       </c>
       <c r="I15">
-        <v>0.4966934493920974</v>
+        <v>0.001958207530033285</v>
       </c>
       <c r="J15">
-        <v>0.06376834246591656</v>
+        <v>0.3018414453449978</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2593085605352137</v>
       </c>
       <c r="L15">
-        <v>0.3821915582404074</v>
+        <v>0.04012964978999989</v>
       </c>
       <c r="M15">
-        <v>0.7742371325855402</v>
+        <v>1.489496431662133</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.119791462498227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3208317293509353</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.253861271518531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.874308221984506</v>
+        <v>1.282137581025211</v>
       </c>
       <c r="C16">
-        <v>0.6260850627595573</v>
+        <v>0.2125663261950734</v>
       </c>
       <c r="D16">
-        <v>0.2545178494047207</v>
+        <v>0.2980328606216887</v>
       </c>
       <c r="E16">
-        <v>0.04560007468082006</v>
+        <v>0.05552139941527123</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008046906989286996</v>
+        <v>0.3201146286235357</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1653259934185485</v>
       </c>
       <c r="I16">
-        <v>0.4990234194948968</v>
+        <v>0.0023886609882382</v>
       </c>
       <c r="J16">
-        <v>0.06162158638496251</v>
+        <v>0.3061128144838534</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2657515414243932</v>
       </c>
       <c r="L16">
-        <v>0.3635950331210296</v>
+        <v>0.03825884565100957</v>
       </c>
       <c r="M16">
-        <v>0.7260046349823099</v>
+        <v>1.398507771991717</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.046412950792018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3027729406665358</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.266700363647089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.712355550273969</v>
+        <v>1.220690329528367</v>
       </c>
       <c r="C17">
-        <v>0.6018285329527941</v>
+        <v>0.2064951380352369</v>
       </c>
       <c r="D17">
-        <v>0.2496255297666039</v>
+        <v>0.3155153262301837</v>
       </c>
       <c r="E17">
-        <v>0.04614474209149311</v>
+        <v>0.06426239648885179</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008068907038848343</v>
+        <v>0.3378210315581072</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1279751893833918</v>
       </c>
       <c r="I17">
-        <v>0.5009541421863446</v>
+        <v>0.002686563035559253</v>
       </c>
       <c r="J17">
-        <v>0.06030794400999184</v>
+        <v>0.3174420681204495</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2779178490580314</v>
       </c>
       <c r="L17">
-        <v>0.3523097184578461</v>
+        <v>0.032843243982418</v>
       </c>
       <c r="M17">
-        <v>0.6965658990225236</v>
+        <v>1.337498426299021</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.004014801965809</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3126947361388304</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.327843770922541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.619421730322244</v>
+        <v>1.174459119394214</v>
       </c>
       <c r="C18">
-        <v>0.5878997341395973</v>
+        <v>0.2039263782296103</v>
       </c>
       <c r="D18">
-        <v>0.2468539229421509</v>
+        <v>0.3612507661502775</v>
       </c>
       <c r="E18">
-        <v>0.04646394856147218</v>
+        <v>0.08613352300726262</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008081641780304425</v>
+        <v>0.3737236197992999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07517009605835767</v>
       </c>
       <c r="I18">
-        <v>0.5022423306134414</v>
+        <v>0.002544043580074096</v>
       </c>
       <c r="J18">
-        <v>0.05955344547145813</v>
+        <v>0.3373651133884721</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2982831925687073</v>
       </c>
       <c r="L18">
-        <v>0.3458617079811006</v>
+        <v>0.03099780808481922</v>
       </c>
       <c r="M18">
-        <v>0.6796848998219858</v>
+        <v>1.294433037714498</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.980550851112469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3490523410640023</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.445613571409282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.587991462860145</v>
+        <v>1.142103414908973</v>
       </c>
       <c r="C19">
-        <v>0.5831873594245849</v>
+        <v>0.2069483008381212</v>
       </c>
       <c r="D19">
-        <v>0.2459226212142198</v>
+        <v>0.4303052700838208</v>
       </c>
       <c r="E19">
-        <v>0.04657303686105774</v>
+        <v>0.1236897245840609</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008085967680206358</v>
+        <v>0.4219521590377511</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02945654151221078</v>
       </c>
       <c r="I19">
-        <v>0.5027084033153315</v>
+        <v>0.002597067225030614</v>
       </c>
       <c r="J19">
-        <v>0.05929815615064626</v>
+        <v>0.3626897459387806</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3239380054660934</v>
       </c>
       <c r="L19">
-        <v>0.3436857045195154</v>
+        <v>0.04290448517960144</v>
       </c>
       <c r="M19">
-        <v>0.6739777533332258</v>
+        <v>1.271401269314055</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.972761143338772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4069774229512007</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.600874956041977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.729572801602387</v>
+        <v>1.15311558325476</v>
       </c>
       <c r="C20">
-        <v>0.6044082482892179</v>
+        <v>0.2209607593612049</v>
       </c>
       <c r="D20">
-        <v>0.2501419083556158</v>
+        <v>0.5627603847292733</v>
       </c>
       <c r="E20">
-        <v>0.04608614592944171</v>
+        <v>0.20323701090323</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008066556781085448</v>
+        <v>0.5069874182471779</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001739216316407166</v>
       </c>
       <c r="I20">
-        <v>0.5007300787795046</v>
+        <v>0.002225655125799975</v>
       </c>
       <c r="J20">
-        <v>0.06044766910804356</v>
+        <v>0.404266870509872</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3660514816933294</v>
       </c>
       <c r="L20">
-        <v>0.3535065598556457</v>
+        <v>0.09104499328553572</v>
       </c>
       <c r="M20">
-        <v>0.6996942996019371</v>
+        <v>1.300928118877493</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.008431828359591</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.523197558236447</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.868334262578372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.207995008649732</v>
+        <v>1.293308831476622</v>
       </c>
       <c r="C21">
-        <v>0.6760011971136919</v>
+        <v>0.246795373833038</v>
       </c>
       <c r="D21">
-        <v>0.2648355339576085</v>
+        <v>0.6279090673223493</v>
       </c>
       <c r="E21">
-        <v>0.04452167489729852</v>
+        <v>0.2298975708794373</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00080022869191845</v>
+        <v>0.5335862138349086</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0005131093864134684</v>
       </c>
       <c r="I21">
-        <v>0.4962524226562266</v>
+        <v>0.001776770596119803</v>
       </c>
       <c r="J21">
-        <v>0.0643237445996796</v>
+        <v>0.4116858175640772</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3694079462861097</v>
       </c>
       <c r="L21">
-        <v>0.3870327258438664</v>
+        <v>0.1054730679526585</v>
       </c>
       <c r="M21">
-        <v>0.7867395537960462</v>
+        <v>1.458094901338995</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.139578732621857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.596253062835757</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.940601862806261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.523023317801119</v>
+        <v>1.387727292794295</v>
       </c>
       <c r="C22">
-        <v>0.7230572298516904</v>
+        <v>0.2618394510122073</v>
       </c>
       <c r="D22">
-        <v>0.2748518459636244</v>
+        <v>0.6648471235324394</v>
       </c>
       <c r="E22">
-        <v>0.04355380835127232</v>
+        <v>0.2433117568208658</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007960946139274455</v>
+        <v>0.549414241700461</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0001448027005581665</v>
       </c>
       <c r="I22">
-        <v>0.4950519044679567</v>
+        <v>0.001411490425633488</v>
       </c>
       <c r="J22">
-        <v>0.06686978332702154</v>
+        <v>0.4158042792845009</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3712077300235563</v>
       </c>
       <c r="L22">
-        <v>0.4093755040503595</v>
+        <v>0.111940089820159</v>
       </c>
       <c r="M22">
-        <v>0.844170928527987</v>
+        <v>1.56041249445434</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.234368365296916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6388645634800838</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.982997407213418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.35465023864009</v>
+        <v>1.338649688245454</v>
       </c>
       <c r="C23">
-        <v>0.6979150480834448</v>
+        <v>0.2521702423500614</v>
       </c>
       <c r="D23">
-        <v>0.269466302882293</v>
+        <v>0.6451910897771427</v>
       </c>
       <c r="E23">
-        <v>0.04406528867740622</v>
+        <v>0.2362078102119298</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007982952694607814</v>
+        <v>0.5428210775534268</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0003111235054835682</v>
       </c>
       <c r="I23">
-        <v>0.4955274147736404</v>
+        <v>0.001274520397460677</v>
       </c>
       <c r="J23">
-        <v>0.06550957765925247</v>
+        <v>0.4145563516656807</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3716763409378316</v>
       </c>
       <c r="L23">
-        <v>0.3974087885407727</v>
+        <v>0.1085359454256576</v>
       </c>
       <c r="M23">
-        <v>0.8134647863114068</v>
+        <v>1.504432968717765</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.182902734740054</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6157956953174306</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.966291289990494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.721788341914134</v>
+        <v>1.150524874186146</v>
       </c>
       <c r="C24">
-        <v>0.6032419079338354</v>
+        <v>0.2185425815910236</v>
       </c>
       <c r="D24">
-        <v>0.2499083261157153</v>
+        <v>0.5711242571938726</v>
       </c>
       <c r="E24">
-        <v>0.04611261836748426</v>
+        <v>0.2092863113209305</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008067619062760489</v>
+        <v>0.5158559660077486</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001552435279087439</v>
       </c>
       <c r="I24">
-        <v>0.5008308243688688</v>
+        <v>0.001713823854471386</v>
       </c>
       <c r="J24">
-        <v>0.06038449714600347</v>
+        <v>0.4088877489351432</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3716933086979246</v>
       </c>
       <c r="L24">
-        <v>0.3529653435813742</v>
+        <v>0.0956021930668669</v>
       </c>
       <c r="M24">
-        <v>0.6982798144255469</v>
+        <v>1.294994341231671</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.006432061499282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5291887025605959</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.896806372363017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.04724000819175</v>
+        <v>0.9472686842482005</v>
       </c>
       <c r="C25">
-        <v>0.5019679481310675</v>
+        <v>0.1828447890789135</v>
       </c>
       <c r="D25">
-        <v>0.2304122594197793</v>
+        <v>0.4921767485286921</v>
       </c>
       <c r="E25">
-        <v>0.04854673859203551</v>
+        <v>0.1803708993565536</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008162066658821108</v>
+        <v>0.4889698663442914</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004085446681481364</v>
       </c>
       <c r="I25">
-        <v>0.5132749637266372</v>
+        <v>0.003127664494175342</v>
       </c>
       <c r="J25">
-        <v>0.05489577419537994</v>
+        <v>0.4040976575684283</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3729716817726327</v>
       </c>
       <c r="L25">
-        <v>0.306646365199498</v>
+        <v>0.08169735584313997</v>
       </c>
       <c r="M25">
-        <v>0.5759574490756734</v>
+        <v>1.069560101131316</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.850923443408817</v>
+        <v>0.436169720005644</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.829265288202464</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8002640322401646</v>
+        <v>0.7914101498912487</v>
       </c>
       <c r="C2">
-        <v>0.1531122122490842</v>
+        <v>0.1668887487901713</v>
       </c>
       <c r="D2">
-        <v>0.4349110383197257</v>
+        <v>0.4359558383071658</v>
       </c>
       <c r="E2">
-        <v>0.1592830513795569</v>
+        <v>0.1601431988570639</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4755341494638046</v>
+        <v>0.4241027676886091</v>
       </c>
       <c r="H2">
-        <v>0.006854874138121525</v>
+        <v>0.006122042101383951</v>
       </c>
       <c r="I2">
-        <v>0.004127980572691925</v>
+        <v>0.002901249608342482</v>
       </c>
       <c r="J2">
-        <v>0.4040508522888047</v>
+        <v>0.4015957846327609</v>
       </c>
       <c r="K2">
-        <v>0.3785358686392577</v>
+        <v>0.3388444970791511</v>
       </c>
       <c r="L2">
-        <v>0.07157908082096753</v>
+        <v>0.161895361940001</v>
       </c>
       <c r="M2">
-        <v>0.9004950781417165</v>
+        <v>0.09719754718731366</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.07251438449183212</v>
       </c>
       <c r="O2">
-        <v>0.3671380028842179</v>
+        <v>0.9213889974345193</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.800281294048361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3724603710610594</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.669578942982398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6984631551191853</v>
+        <v>0.6936476834333405</v>
       </c>
       <c r="C3">
-        <v>0.1353850554904028</v>
+        <v>0.1440588049762823</v>
       </c>
       <c r="D3">
-        <v>0.396320877346426</v>
+        <v>0.3977923336780549</v>
       </c>
       <c r="E3">
-        <v>0.1449168843866495</v>
+        <v>0.1460948978066412</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4646596396575333</v>
+        <v>0.4186284882548748</v>
       </c>
       <c r="H3">
-        <v>0.009266287637162279</v>
+        <v>0.008303412142264988</v>
       </c>
       <c r="I3">
-        <v>0.00560289416183668</v>
+        <v>0.003947415400035847</v>
       </c>
       <c r="J3">
-        <v>0.4032270286768949</v>
+        <v>0.3994536172944052</v>
       </c>
       <c r="K3">
-        <v>0.380793459443808</v>
+        <v>0.343216320880849</v>
       </c>
       <c r="L3">
-        <v>0.06463291757753709</v>
+        <v>0.1668881456282314</v>
       </c>
       <c r="M3">
-        <v>0.787747130868496</v>
+        <v>0.09699316644546485</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06581962270310271</v>
       </c>
       <c r="O3">
-        <v>0.3208642389476992</v>
+        <v>0.8046506758869612</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.775214604402095</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3252268997833028</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.65596537558315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6357017548434669</v>
+        <v>0.6332848396772306</v>
       </c>
       <c r="C4">
-        <v>0.1246472443384761</v>
+        <v>0.1303024450548378</v>
       </c>
       <c r="D4">
-        <v>0.3727666822469615</v>
+        <v>0.3745015312916138</v>
       </c>
       <c r="E4">
-        <v>0.1360907366834461</v>
+        <v>0.1374640164174927</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4583238730724375</v>
+        <v>0.4156186181781436</v>
       </c>
       <c r="H4">
-        <v>0.0109916302036393</v>
+        <v>0.009866578721281556</v>
       </c>
       <c r="I4">
-        <v>0.006702133993992998</v>
+        <v>0.00475141967582049</v>
       </c>
       <c r="J4">
-        <v>0.4029608845917139</v>
+        <v>0.3981966348146528</v>
       </c>
       <c r="K4">
-        <v>0.3823800147251006</v>
+        <v>0.3460310672902409</v>
       </c>
       <c r="L4">
-        <v>0.0603502190663967</v>
+        <v>0.1700559712178169</v>
       </c>
       <c r="M4">
-        <v>0.7185189644808787</v>
+        <v>0.09737069075888627</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06168678396270622</v>
       </c>
       <c r="O4">
-        <v>0.2924828420302461</v>
+        <v>0.7330128632935953</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.761041067939459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2962610261686294</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.64850310575703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6097414318202823</v>
+        <v>0.6082919382432692</v>
       </c>
       <c r="C5">
-        <v>0.120696855791266</v>
+        <v>0.1251714574175082</v>
       </c>
       <c r="D5">
-        <v>0.3631784695350859</v>
+        <v>0.3650218582798459</v>
       </c>
       <c r="E5">
-        <v>0.1324759285734451</v>
+        <v>0.1339293453138133</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4553292780463849</v>
+        <v>0.4140197782680062</v>
       </c>
       <c r="H5">
-        <v>0.01175706719408588</v>
+        <v>0.01056058153026628</v>
       </c>
       <c r="I5">
-        <v>0.007277502482766707</v>
+        <v>0.005210289502463716</v>
       </c>
       <c r="J5">
-        <v>0.402652356359674</v>
+        <v>0.3974472689986968</v>
       </c>
       <c r="K5">
-        <v>0.3826888689682981</v>
+        <v>0.3468606996891594</v>
       </c>
       <c r="L5">
-        <v>0.05858704263878067</v>
+        <v>0.1711928400344043</v>
       </c>
       <c r="M5">
-        <v>0.6906311669388998</v>
+        <v>0.0975674146562433</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.05998397849963055</v>
       </c>
       <c r="O5">
-        <v>0.2810003795915605</v>
+        <v>0.7041488382057537</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.753969314573141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2845402319881529</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.644190508269716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6050369273796434</v>
+        <v>0.6037587730599228</v>
       </c>
       <c r="C6">
-        <v>0.120523402163883</v>
+        <v>0.1248297716019096</v>
       </c>
       <c r="D6">
-        <v>0.3615613034371279</v>
+        <v>0.3634235848515885</v>
       </c>
       <c r="E6">
-        <v>0.1318562279202204</v>
+        <v>0.1333235181522952</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4542323262603816</v>
+        <v>0.4132019295910254</v>
       </c>
       <c r="H6">
-        <v>0.01189138448026381</v>
+        <v>0.01068237923672628</v>
       </c>
       <c r="I6">
-        <v>0.00748156863906857</v>
+        <v>0.005410174371047738</v>
       </c>
       <c r="J6">
-        <v>0.4022883948423157</v>
+        <v>0.3970166861041449</v>
       </c>
       <c r="K6">
-        <v>0.3822711230429299</v>
+        <v>0.3465746561247478</v>
       </c>
       <c r="L6">
-        <v>0.05827842641952685</v>
+        <v>0.1711646716870376</v>
       </c>
       <c r="M6">
-        <v>0.686402557195251</v>
+        <v>0.09750567974468272</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.05968572248843884</v>
       </c>
       <c r="O6">
-        <v>0.2791893925588624</v>
+        <v>0.6997525142011227</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.750868670059035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2826877943462804</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.641670412476046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6342838083253071</v>
+        <v>0.6320403435173887</v>
       </c>
       <c r="C7">
-        <v>0.1259081690291595</v>
+        <v>0.1314054517805658</v>
       </c>
       <c r="D7">
-        <v>0.3725640410951314</v>
+        <v>0.3742935817308819</v>
       </c>
       <c r="E7">
-        <v>0.1359895023028059</v>
+        <v>0.1373578049905007</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4566337726293881</v>
+        <v>0.4163792255457182</v>
       </c>
       <c r="H7">
-        <v>0.01101119123763238</v>
+        <v>0.009890940260546453</v>
       </c>
       <c r="I7">
-        <v>0.006982250929124412</v>
+        <v>0.00507543569669</v>
       </c>
       <c r="J7">
-        <v>0.4020949834212573</v>
+        <v>0.3934878002368194</v>
       </c>
       <c r="K7">
-        <v>0.3810975246716666</v>
+        <v>0.3444352069046523</v>
       </c>
       <c r="L7">
-        <v>0.0602841890920125</v>
+        <v>0.1692682433254618</v>
       </c>
       <c r="M7">
-        <v>0.7192457315343006</v>
+        <v>0.09696582921473329</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06161469087717109</v>
       </c>
       <c r="O7">
-        <v>0.2925889443031338</v>
+        <v>0.7335119941851502</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.755643773850451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2963182355756118</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.64061052722063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7637870138424887</v>
+        <v>0.7568179123140908</v>
       </c>
       <c r="C8">
-        <v>0.1487219162351749</v>
+        <v>0.1600978760439631</v>
       </c>
       <c r="D8">
-        <v>0.4214786434229296</v>
+        <v>0.4226471857671044</v>
       </c>
       <c r="E8">
-        <v>0.1542615196919641</v>
+        <v>0.1552111028677565</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4695397032333304</v>
+        <v>0.4278519869994426</v>
       </c>
       <c r="H8">
-        <v>0.007643985471993214</v>
+        <v>0.006852336162823824</v>
       </c>
       <c r="I8">
-        <v>0.00492236523515821</v>
+        <v>0.003618294462221172</v>
       </c>
       <c r="J8">
-        <v>0.4025867468388071</v>
+        <v>0.3872286159622433</v>
       </c>
       <c r="K8">
-        <v>0.3775850995047954</v>
+        <v>0.3373688829316102</v>
       </c>
       <c r="L8">
-        <v>0.06913155223584511</v>
+        <v>0.1622497483302432</v>
       </c>
       <c r="M8">
-        <v>0.8630899613262386</v>
+        <v>0.09614233661523031</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.07013148014153359</v>
       </c>
       <c r="O8">
-        <v>0.3515218089701619</v>
+        <v>0.8819172595603106</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.784409836161359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3563685506590559</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.648758495416061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.017761405877849</v>
+        <v>1.000318776653728</v>
       </c>
       <c r="C9">
-        <v>0.1923805469741779</v>
+        <v>0.2168382940527067</v>
       </c>
       <c r="D9">
-        <v>0.5187855779425092</v>
+        <v>0.5188851363460003</v>
       </c>
       <c r="E9">
-        <v>0.1901906703509653</v>
+        <v>0.1903400238881332</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5006715888351607</v>
+        <v>0.4475809295417008</v>
       </c>
       <c r="H9">
-        <v>0.003074384997969082</v>
+        <v>0.002727300806286914</v>
       </c>
       <c r="I9">
-        <v>0.002091169167297124</v>
+        <v>0.001613633054999397</v>
       </c>
       <c r="J9">
-        <v>0.4070514218471999</v>
+        <v>0.3905369023570273</v>
       </c>
       <c r="K9">
-        <v>0.3746298645400898</v>
+        <v>0.3282465982756904</v>
       </c>
       <c r="L9">
-        <v>0.08645387560875406</v>
+        <v>0.1510210160954895</v>
       </c>
       <c r="M9">
-        <v>1.143431843021943</v>
+        <v>0.09957074221717654</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.08679064128082814</v>
       </c>
       <c r="O9">
-        <v>0.4669880012080085</v>
+        <v>1.172234144046456</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.860433710994414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4742071225837066</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.691490532063554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.20573537492885</v>
+        <v>1.18134884345443</v>
       </c>
       <c r="C10">
-        <v>0.2255091650254002</v>
+        <v>0.2582218827778178</v>
       </c>
       <c r="D10">
-        <v>0.5794632045227956</v>
+        <v>0.5787781353541561</v>
       </c>
       <c r="E10">
-        <v>0.2085582463156399</v>
+        <v>0.2081259709534038</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5166951335751975</v>
+        <v>0.4703187810449947</v>
       </c>
       <c r="H10">
-        <v>0.001393384241062279</v>
+        <v>0.001252216401609552</v>
       </c>
       <c r="I10">
-        <v>0.001269936962632556</v>
+        <v>0.001232614602965754</v>
       </c>
       <c r="J10">
-        <v>0.407145317714992</v>
+        <v>0.369227995957786</v>
       </c>
       <c r="K10">
-        <v>0.3685673908345919</v>
+        <v>0.3160147231350905</v>
       </c>
       <c r="L10">
-        <v>0.0932027264929971</v>
+        <v>0.1410882389988881</v>
       </c>
       <c r="M10">
-        <v>1.35217466867212</v>
+        <v>0.1020308380320145</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.093033882213021</v>
       </c>
       <c r="O10">
-        <v>0.5426708988264579</v>
+        <v>1.38678448154522</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.895058779234517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5511842035172094</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.68800026695726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.315426996894445</v>
+        <v>1.293030000871084</v>
       </c>
       <c r="C11">
-        <v>0.2377730272880285</v>
+        <v>0.2663298308767708</v>
       </c>
       <c r="D11">
-        <v>0.5084263416067074</v>
+        <v>0.5077097253349336</v>
       </c>
       <c r="E11">
-        <v>0.1532906690156999</v>
+        <v>0.1529067537842721</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4544903945738668</v>
+        <v>0.4420035837130456</v>
       </c>
       <c r="H11">
-        <v>0.0200116238211514</v>
+        <v>0.01990334819982209</v>
       </c>
       <c r="I11">
-        <v>0.001643083468958473</v>
+        <v>0.00180238430590407</v>
       </c>
       <c r="J11">
-        <v>0.3719174249566208</v>
+        <v>0.3062200927902339</v>
       </c>
       <c r="K11">
-        <v>0.3281862325571971</v>
+        <v>0.2784630803438759</v>
       </c>
       <c r="L11">
-        <v>0.05560648669521839</v>
+        <v>0.1260603001042995</v>
       </c>
       <c r="M11">
-        <v>1.464093589099235</v>
+        <v>0.09000672442174107</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.05555756298556602</v>
       </c>
       <c r="O11">
-        <v>0.4952149020029211</v>
+        <v>1.495208826143141</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.689610217464377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5022982738083499</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.475797264438086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.371354314665069</v>
+        <v>1.351808848210879</v>
       </c>
       <c r="C12">
-        <v>0.2388617478945747</v>
+        <v>0.2627061861265219</v>
       </c>
       <c r="D12">
-        <v>0.440009795863773</v>
+        <v>0.4394303182829162</v>
       </c>
       <c r="E12">
-        <v>0.1116427286971096</v>
+        <v>0.111405510868881</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4040046269448112</v>
+        <v>0.4074357175778403</v>
       </c>
       <c r="H12">
-        <v>0.05887331206787394</v>
+        <v>0.05876745129208416</v>
       </c>
       <c r="I12">
-        <v>0.001616946433143696</v>
+        <v>0.001791075423173361</v>
       </c>
       <c r="J12">
-        <v>0.3446962034619361</v>
+        <v>0.2763437880165114</v>
       </c>
       <c r="K12">
-        <v>0.2995328732406861</v>
+        <v>0.2547317081584524</v>
       </c>
       <c r="L12">
-        <v>0.03746757194162953</v>
+        <v>0.1176776450623578</v>
       </c>
       <c r="M12">
-        <v>1.513347086503074</v>
+        <v>0.08102705370320784</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.03759777453836666</v>
       </c>
       <c r="O12">
-        <v>0.4410469139278277</v>
+        <v>1.540816809374206</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.52564858368811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4469033091455046</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.324594080738208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.386893795376011</v>
+        <v>1.370668852366691</v>
       </c>
       <c r="C13">
-        <v>0.2334924591816474</v>
+        <v>0.2527270924648377</v>
       </c>
       <c r="D13">
-        <v>0.3698559147658784</v>
+        <v>0.3695322031370267</v>
       </c>
       <c r="E13">
-        <v>0.0780912844317605</v>
+        <v>0.07807640419280304</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3569494681880698</v>
+        <v>0.3595390378983154</v>
       </c>
       <c r="H13">
-        <v>0.1149704116744772</v>
+        <v>0.1148357825285586</v>
       </c>
       <c r="I13">
-        <v>0.001643065798934806</v>
+        <v>0.001772458325408621</v>
       </c>
       <c r="J13">
-        <v>0.3206308874117028</v>
+        <v>0.2661676928181897</v>
       </c>
       <c r="K13">
-        <v>0.2761047312522678</v>
+        <v>0.2384361828987558</v>
       </c>
       <c r="L13">
-        <v>0.03300577793931669</v>
+        <v>0.1126270114653192</v>
       </c>
       <c r="M13">
-        <v>1.518494559211973</v>
+        <v>0.07363922271767898</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.03337676308036563</v>
       </c>
       <c r="O13">
-        <v>0.3793904151266503</v>
+        <v>1.542568278631734</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.37547708340675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3841710509291758</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.205784048304082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.379084232018442</v>
+        <v>1.365403348720491</v>
       </c>
       <c r="C14">
-        <v>0.2272479675617802</v>
+        <v>0.2433086054001308</v>
       </c>
       <c r="D14">
-        <v>0.3209693173417634</v>
+        <v>0.3208643613910311</v>
       </c>
       <c r="E14">
-        <v>0.05959933014493046</v>
+        <v>0.05976403541102826</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3258118477940428</v>
+        <v>0.3219593018298355</v>
       </c>
       <c r="H14">
-        <v>0.1646401992511812</v>
+        <v>0.1644674882047354</v>
       </c>
       <c r="I14">
-        <v>0.00178337973961451</v>
+        <v>0.001865357445393734</v>
       </c>
       <c r="J14">
-        <v>0.3052850232141253</v>
+        <v>0.2654028223864486</v>
       </c>
       <c r="K14">
-        <v>0.2621694682843678</v>
+        <v>0.2300188491240913</v>
       </c>
       <c r="L14">
-        <v>0.03797981838436293</v>
+        <v>0.1102809279632746</v>
       </c>
       <c r="M14">
-        <v>1.502457348737806</v>
+        <v>0.06923288140275474</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03853785743763893</v>
       </c>
       <c r="O14">
-        <v>0.3336635822325675</v>
+        <v>1.524241539998712</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.27727343012198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3377487230132203</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.135486479471169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.367869050392301</v>
+        <v>1.354913263444672</v>
       </c>
       <c r="C15">
-        <v>0.2249123771813828</v>
+        <v>0.2402107831394176</v>
       </c>
       <c r="D15">
-        <v>0.3082328235019389</v>
+        <v>0.3082062483083519</v>
       </c>
       <c r="E15">
-        <v>0.05570669528104766</v>
+        <v>0.05593377053244275</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3181859345845766</v>
+        <v>0.3105664994120758</v>
       </c>
       <c r="H15">
-        <v>0.1772969391041954</v>
+        <v>0.1771046600644866</v>
       </c>
       <c r="I15">
-        <v>0.001958207530033285</v>
+        <v>0.002034543098903718</v>
       </c>
       <c r="J15">
-        <v>0.3018414453449978</v>
+        <v>0.2677385492010131</v>
       </c>
       <c r="K15">
-        <v>0.2593085605352137</v>
+        <v>0.2288319906306544</v>
       </c>
       <c r="L15">
-        <v>0.04012964978999989</v>
+        <v>0.1100659092972656</v>
       </c>
       <c r="M15">
-        <v>1.489496431662133</v>
+        <v>0.06831932727035195</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04075149793807498</v>
       </c>
       <c r="O15">
-        <v>0.3208317293509353</v>
+        <v>1.510759742697246</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.253861271518531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3247542096482121</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.121716520999925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.282137581025211</v>
+        <v>1.270179557605445</v>
       </c>
       <c r="C16">
-        <v>0.2125663261950734</v>
+        <v>0.2274837558793052</v>
       </c>
       <c r="D16">
-        <v>0.2980328606216887</v>
+        <v>0.2982662494364376</v>
       </c>
       <c r="E16">
-        <v>0.05552139941527123</v>
+        <v>0.0559459989530886</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3201146286235357</v>
+        <v>0.2944154263243703</v>
       </c>
       <c r="H16">
-        <v>0.1653259934185485</v>
+        <v>0.1650275114025845</v>
       </c>
       <c r="I16">
-        <v>0.0023886609882382</v>
+        <v>0.002326294697468256</v>
       </c>
       <c r="J16">
-        <v>0.3061128144838534</v>
+        <v>0.2935503037051461</v>
       </c>
       <c r="K16">
-        <v>0.2657515414243932</v>
+        <v>0.2381358353403478</v>
       </c>
       <c r="L16">
-        <v>0.03825884565100957</v>
+        <v>0.1140092571865496</v>
       </c>
       <c r="M16">
-        <v>1.398507771991717</v>
+        <v>0.07021615151097294</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03907383673904441</v>
       </c>
       <c r="O16">
-        <v>0.3027729406665358</v>
+        <v>1.419962431028011</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.266700363647089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3066952816760846</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.159407534867555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.220690329528367</v>
+        <v>1.208388700759116</v>
       </c>
       <c r="C17">
-        <v>0.2064951380352369</v>
+        <v>0.222452155077022</v>
       </c>
       <c r="D17">
-        <v>0.3155153262301837</v>
+        <v>0.3158443189338271</v>
       </c>
       <c r="E17">
-        <v>0.06426239648885179</v>
+        <v>0.06474767796748537</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3378210315581072</v>
+        <v>0.3031417434312971</v>
       </c>
       <c r="H17">
-        <v>0.1279751893833918</v>
+        <v>0.1276150461699643</v>
       </c>
       <c r="I17">
-        <v>0.002686563035559253</v>
+        <v>0.002541488923702317</v>
       </c>
       <c r="J17">
-        <v>0.3174420681204495</v>
+        <v>0.3139911780400766</v>
       </c>
       <c r="K17">
-        <v>0.2779178490580314</v>
+        <v>0.249695924821614</v>
       </c>
       <c r="L17">
-        <v>0.032843243982418</v>
+        <v>0.1186248704912689</v>
       </c>
       <c r="M17">
-        <v>1.337498426299021</v>
+        <v>0.07372987491746485</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0337014985262023</v>
       </c>
       <c r="O17">
-        <v>0.3126947361388304</v>
+        <v>1.35996120646243</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.327843770922541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3169402644255328</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.224183171201091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.174459119394214</v>
+        <v>1.160343763416421</v>
       </c>
       <c r="C18">
-        <v>0.2039263782296103</v>
+        <v>0.2226809246778458</v>
       </c>
       <c r="D18">
-        <v>0.3612507661502775</v>
+        <v>0.3615374799756665</v>
       </c>
       <c r="E18">
-        <v>0.08613352300726262</v>
+        <v>0.08656221796008623</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3737236197992999</v>
+        <v>0.3315263246794586</v>
       </c>
       <c r="H18">
-        <v>0.07517009605835767</v>
+        <v>0.07479606914320414</v>
       </c>
       <c r="I18">
-        <v>0.002544043580074096</v>
+        <v>0.00232201209691052</v>
       </c>
       <c r="J18">
-        <v>0.3373651133884721</v>
+        <v>0.3362890065705173</v>
       </c>
       <c r="K18">
-        <v>0.2982831925687073</v>
+        <v>0.266681873464508</v>
       </c>
       <c r="L18">
-        <v>0.03099780808481922</v>
+        <v>0.1251901914913276</v>
       </c>
       <c r="M18">
-        <v>1.294433037714498</v>
+        <v>0.0796888308088004</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.03177367967030487</v>
       </c>
       <c r="O18">
-        <v>0.3490523410640023</v>
+        <v>1.319153255152088</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.445613571409282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3540566706778563</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.331476067393922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.142103414908973</v>
+        <v>1.125151012845492</v>
       </c>
       <c r="C19">
-        <v>0.2069483008381212</v>
+        <v>0.2300675151719673</v>
       </c>
       <c r="D19">
-        <v>0.4303052700838208</v>
+        <v>0.4304228888297814</v>
       </c>
       <c r="E19">
-        <v>0.1236897245840609</v>
+        <v>0.1239491664687975</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4219521590377511</v>
+        <v>0.3721518969589468</v>
       </c>
       <c r="H19">
-        <v>0.02945654151221078</v>
+        <v>0.02911798524461062</v>
       </c>
       <c r="I19">
-        <v>0.002597067225030614</v>
+        <v>0.002424063197232762</v>
       </c>
       <c r="J19">
-        <v>0.3626897459387806</v>
+        <v>0.3598707958492398</v>
       </c>
       <c r="K19">
-        <v>0.3239380054660934</v>
+        <v>0.2869680999149651</v>
       </c>
       <c r="L19">
-        <v>0.04290448517960144</v>
+        <v>0.1328576358786737</v>
       </c>
       <c r="M19">
-        <v>1.271401269314055</v>
+        <v>0.0872429444809395</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0434743658049932</v>
       </c>
       <c r="O19">
-        <v>0.4069774229512007</v>
+        <v>1.299294284441345</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.600874956041977</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4131178660474362</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.466509100733404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.15311558325476</v>
+        <v>1.130257589379596</v>
       </c>
       <c r="C20">
-        <v>0.2209607593612049</v>
+        <v>0.2526471064352336</v>
       </c>
       <c r="D20">
-        <v>0.5627603847292733</v>
+        <v>0.5623117014526429</v>
       </c>
       <c r="E20">
-        <v>0.20323701090323</v>
+        <v>0.2029827466286491</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5069874182471779</v>
+        <v>0.450782534502892</v>
       </c>
       <c r="H20">
-        <v>0.001739216316407166</v>
+        <v>0.001544970759532749</v>
       </c>
       <c r="I20">
-        <v>0.002225655125799975</v>
+        <v>0.002237498096258506</v>
       </c>
       <c r="J20">
-        <v>0.404266870509872</v>
+        <v>0.3847798551505548</v>
       </c>
       <c r="K20">
-        <v>0.3660514816933294</v>
+        <v>0.3172305006028786</v>
       </c>
       <c r="L20">
-        <v>0.09104499328553572</v>
+        <v>0.1429136450665798</v>
       </c>
       <c r="M20">
-        <v>1.300928118877493</v>
+        <v>0.1005003352705991</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.09104071111485723</v>
       </c>
       <c r="O20">
-        <v>0.523197558236447</v>
+        <v>1.334688800506228</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.868334262578372</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5315046389345639</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.683019490798614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.293308831476622</v>
+        <v>1.266848382143962</v>
       </c>
       <c r="C21">
-        <v>0.246795373833038</v>
+        <v>0.2814856211795131</v>
       </c>
       <c r="D21">
-        <v>0.6279090673223493</v>
+        <v>0.6266970010682087</v>
       </c>
       <c r="E21">
-        <v>0.2298975708794373</v>
+        <v>0.2290496776440207</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5335862138349086</v>
+        <v>0.5283407235996833</v>
       </c>
       <c r="H21">
-        <v>0.0005131093864134684</v>
+        <v>0.0004622360127839453</v>
       </c>
       <c r="I21">
-        <v>0.001776770596119803</v>
+        <v>0.002043461230902821</v>
       </c>
       <c r="J21">
-        <v>0.4116858175640772</v>
+        <v>0.3166546966173485</v>
       </c>
       <c r="K21">
-        <v>0.3694079462861097</v>
+        <v>0.3063916936501059</v>
       </c>
       <c r="L21">
-        <v>0.1054730679526585</v>
+        <v>0.1351834109839238</v>
       </c>
       <c r="M21">
-        <v>1.458094901338995</v>
+        <v>0.1021745134516507</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1048829547033776</v>
       </c>
       <c r="O21">
-        <v>0.596253062835757</v>
+        <v>1.493121598204283</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.940601862806261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6050003230352772</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.666941612563107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.387727292794295</v>
+        <v>1.359260303264335</v>
       </c>
       <c r="C22">
-        <v>0.2618394510122073</v>
+        <v>0.2976937407516687</v>
       </c>
       <c r="D22">
-        <v>0.6648471235324394</v>
+        <v>0.663165982785614</v>
       </c>
       <c r="E22">
-        <v>0.2433117568208658</v>
+        <v>0.2421050041500195</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.549414241700461</v>
+        <v>0.585733940851668</v>
       </c>
       <c r="H22">
-        <v>0.0001448027005581665</v>
+        <v>0.000137428726819433</v>
       </c>
       <c r="I22">
-        <v>0.001411490425633488</v>
+        <v>0.001715943427919697</v>
       </c>
       <c r="J22">
-        <v>0.4158042792845009</v>
+        <v>0.2776298518113407</v>
       </c>
       <c r="K22">
-        <v>0.3712077300235563</v>
+        <v>0.2985298423026315</v>
       </c>
       <c r="L22">
-        <v>0.111940089820159</v>
+        <v>0.1301064113421546</v>
       </c>
       <c r="M22">
-        <v>1.56041249445434</v>
+        <v>0.1031455125194327</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1109898680888435</v>
       </c>
       <c r="O22">
-        <v>0.6388645634800838</v>
+        <v>1.595696222479518</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.982997407213418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6477117242877668</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.648224748931284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.338649688245454</v>
+        <v>1.310838475540805</v>
       </c>
       <c r="C23">
-        <v>0.2521702423500614</v>
+        <v>0.2878925768700356</v>
       </c>
       <c r="D23">
-        <v>0.6451910897771427</v>
+        <v>0.643764699342654</v>
       </c>
       <c r="E23">
-        <v>0.2362078102119298</v>
+        <v>0.2351971949426215</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5428210775534268</v>
+        <v>0.549463907616655</v>
       </c>
       <c r="H23">
-        <v>0.0003111235054835682</v>
+        <v>0.0002832519600057815</v>
       </c>
       <c r="I23">
-        <v>0.001274520397460677</v>
+        <v>0.001502822469674925</v>
       </c>
       <c r="J23">
-        <v>0.4145563516656807</v>
+        <v>0.3044244454769398</v>
       </c>
       <c r="K23">
-        <v>0.3716763409378316</v>
+        <v>0.3049344422090243</v>
       </c>
       <c r="L23">
-        <v>0.1085359454256576</v>
+        <v>0.1335101006332522</v>
       </c>
       <c r="M23">
-        <v>1.504432968717765</v>
+        <v>0.1035581847601641</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1077876027137208</v>
       </c>
       <c r="O23">
-        <v>0.6157956953174306</v>
+        <v>1.540144378537804</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.966291289990494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6247168907676866</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.67060898517343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.150524874186146</v>
+        <v>1.127342057241748</v>
       </c>
       <c r="C24">
-        <v>0.2185425815910236</v>
+        <v>0.250446839387962</v>
       </c>
       <c r="D24">
-        <v>0.5711242571938726</v>
+        <v>0.570649968971253</v>
       </c>
       <c r="E24">
-        <v>0.2092863113209305</v>
+        <v>0.2090052112620384</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5158559660077486</v>
+        <v>0.4581842927397872</v>
       </c>
       <c r="H24">
-        <v>0.001552435279087439</v>
+        <v>0.001362886076627268</v>
       </c>
       <c r="I24">
-        <v>0.001713823854471386</v>
+        <v>0.001629600933245712</v>
       </c>
       <c r="J24">
-        <v>0.4088877489351432</v>
+        <v>0.3894388064229943</v>
       </c>
       <c r="K24">
-        <v>0.3716933086979246</v>
+        <v>0.3218951297294588</v>
       </c>
       <c r="L24">
-        <v>0.0956021930668669</v>
+        <v>0.1446711463044572</v>
       </c>
       <c r="M24">
-        <v>1.294994341231671</v>
+        <v>0.1022372088306263</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.09556418138953404</v>
       </c>
       <c r="O24">
-        <v>0.5291887025605959</v>
+        <v>1.329071324556111</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.896806372363017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5376402230543889</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.708451557234838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9472686842482005</v>
+        <v>0.9326235839606341</v>
       </c>
       <c r="C25">
-        <v>0.1828447890789135</v>
+        <v>0.2041809819443472</v>
       </c>
       <c r="D25">
-        <v>0.4921767485286921</v>
+        <v>0.4925807594337357</v>
       </c>
       <c r="E25">
-        <v>0.1803708993565536</v>
+        <v>0.180749430244731</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4889698663442914</v>
+        <v>0.4358650042874785</v>
       </c>
       <c r="H25">
-        <v>0.004085446681481364</v>
+        <v>0.003632635161825881</v>
       </c>
       <c r="I25">
-        <v>0.003127664494175342</v>
+        <v>0.002534490752296392</v>
       </c>
       <c r="J25">
-        <v>0.4040976575684283</v>
+        <v>0.3934488821530238</v>
       </c>
       <c r="K25">
-        <v>0.3729716817726327</v>
+        <v>0.329235851705203</v>
       </c>
       <c r="L25">
-        <v>0.08169735584313997</v>
+        <v>0.1534244394767974</v>
       </c>
       <c r="M25">
-        <v>1.069560101131316</v>
+        <v>0.09773530626004323</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.08223142423291563</v>
       </c>
       <c r="O25">
-        <v>0.436169720005644</v>
+        <v>1.095901650491953</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.829265288202464</v>
+        <v>0.4427970705031754</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.67447107349463</v>
       </c>
     </row>
   </sheetData>
